--- a/teaching/traditional_assets/database/data/brazil/brazil_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bovespa_hbts5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.116</v>
+        <v>-0.0125</v>
       </c>
       <c r="E2">
-        <v>-0.111</v>
+        <v>0.995</v>
       </c>
       <c r="G2">
-        <v>-17.08333333333333</v>
+        <v>-0.1298507462686567</v>
       </c>
       <c r="H2">
-        <v>-17.08333333333333</v>
+        <v>-0.1298507462686567</v>
       </c>
       <c r="I2">
-        <v>-17.57246376811594</v>
+        <v>1.545534825870647</v>
       </c>
       <c r="J2">
-        <v>-16.11885922847399</v>
+        <v>1.366758786110758</v>
       </c>
       <c r="K2">
-        <v>24.4</v>
+        <v>68.34</v>
       </c>
       <c r="L2">
-        <v>44.20289855072463</v>
+        <v>0.85</v>
       </c>
       <c r="M2">
-        <v>43.9</v>
+        <v>22.236</v>
       </c>
       <c r="N2">
-        <v>0.08468364197530864</v>
+        <v>0.0311690496215307</v>
       </c>
       <c r="O2">
-        <v>1.799180327868853</v>
+        <v>0.3253731343283582</v>
       </c>
       <c r="P2">
-        <v>43.9</v>
+        <v>22.236</v>
       </c>
       <c r="Q2">
-        <v>0.08468364197530864</v>
+        <v>0.0311690496215307</v>
       </c>
       <c r="R2">
-        <v>1.799180327868853</v>
+        <v>0.3253731343283582</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.22</v>
+        <v>134.87</v>
       </c>
       <c r="V2">
-        <v>0.01006944444444445</v>
+        <v>0.1890524250070087</v>
       </c>
       <c r="W2">
-        <v>0.08692554328464552</v>
+        <v>-0.04680073126142596</v>
       </c>
       <c r="X2">
-        <v>0.07844651135234372</v>
+        <v>0.06872382910606704</v>
       </c>
       <c r="Y2">
-        <v>0.008479031932301803</v>
+        <v>-0.115524560367493</v>
       </c>
       <c r="Z2">
-        <v>0.001916799777762345</v>
+        <v>0.1773370330014514</v>
       </c>
       <c r="AA2">
-        <v>-0.03089662578692148</v>
+        <v>0.008240206312169962</v>
       </c>
       <c r="AB2">
-        <v>0.07582344694184849</v>
+        <v>0.0653523879880835</v>
       </c>
       <c r="AC2">
-        <v>-0.10672007272877</v>
+        <v>-0.06008246164252903</v>
       </c>
       <c r="AD2">
-        <v>39.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>39.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AG2">
-        <v>34.58</v>
+        <v>-60.47</v>
       </c>
       <c r="AH2">
-        <v>0.07130060910068076</v>
+        <v>0.09444021325209445</v>
       </c>
       <c r="AI2">
-        <v>0.1351902173913044</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="AJ2">
-        <v>0.06253390719375022</v>
+        <v>-0.0926132969843628</v>
       </c>
       <c r="AK2">
-        <v>0.1195795006570302</v>
+        <v>-0.1883038021984866</v>
       </c>
       <c r="AL2">
-        <v>0.189</v>
+        <v>3.6</v>
       </c>
       <c r="AM2">
-        <v>-2.491</v>
+        <v>-0.3180000000000005</v>
       </c>
       <c r="AN2">
-        <v>-4.137214137214137</v>
+        <v>0.5901015228426396</v>
       </c>
       <c r="AO2">
-        <v>-51.32275132275132</v>
+        <v>34.51694444444445</v>
       </c>
       <c r="AP2">
-        <v>-3.594594594594595</v>
+        <v>-0.479616116751269</v>
       </c>
       <c r="AQ2">
-        <v>3.894018466479325</v>
+        <v>-390.7578616352195</v>
       </c>
     </row>
     <row r="3">
@@ -716,130 +718,9107 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Companhia de Participações Aliança da Bahia (BOVESPA:PEAB4)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>-0.0125</v>
+      </c>
+      <c r="E3">
+        <v>0.995</v>
+      </c>
+      <c r="G3">
+        <v>0.3008298755186722</v>
+      </c>
+      <c r="H3">
+        <v>0.3008298755186722</v>
+      </c>
+      <c r="I3">
+        <v>2.688796680497925</v>
+      </c>
+      <c r="J3">
+        <v>1.755736329713208</v>
+      </c>
+      <c r="K3">
+        <v>84.3</v>
+      </c>
+      <c r="L3">
+        <v>1.74896265560166</v>
+      </c>
+      <c r="M3">
+        <v>9.18</v>
+      </c>
+      <c r="N3">
+        <v>0.06623376623376623</v>
+      </c>
+      <c r="O3">
+        <v>0.1088967971530249</v>
+      </c>
+      <c r="P3">
+        <v>9.18</v>
+      </c>
+      <c r="Q3">
+        <v>0.06623376623376623</v>
+      </c>
+      <c r="R3">
+        <v>0.1088967971530249</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>106.8</v>
+      </c>
+      <c r="V3">
+        <v>0.7705627705627706</v>
+      </c>
+      <c r="W3">
+        <v>0.6760224538893344</v>
+      </c>
+      <c r="X3">
+        <v>0.06518678917476158</v>
+      </c>
+      <c r="Y3">
+        <v>0.6108356647145727</v>
+      </c>
+      <c r="Z3">
+        <v>0.5823788120438838</v>
+      </c>
+      <c r="AA3">
+        <v>1.022503637960666</v>
+      </c>
+      <c r="AB3">
+        <v>0.06518678917476158</v>
+      </c>
+      <c r="AC3">
+        <v>0.9573168487859048</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-106.8</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.358490566037736</v>
+      </c>
+      <c r="AK3">
+        <v>-1.671361502347418</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>-2.18</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>-0.8146453089244852</v>
+      </c>
+      <c r="AQ3">
+        <v>-59.44954128440367</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Companhia Habitasul de Participações (BOVESPA:HBTS5)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.0486</v>
+      </c>
+      <c r="G4">
+        <v>-1.263565891472868</v>
+      </c>
+      <c r="H4">
+        <v>-1.263565891472868</v>
+      </c>
+      <c r="I4">
+        <v>0.052015503875969</v>
+      </c>
+      <c r="J4">
+        <v>0.052015503875969</v>
+      </c>
+      <c r="K4">
+        <v>-2.56</v>
+      </c>
+      <c r="L4">
+        <v>-0.1984496124031008</v>
+      </c>
+      <c r="M4">
+        <v>0.056</v>
+      </c>
+      <c r="N4">
+        <v>0.001272727272727273</v>
+      </c>
+      <c r="O4">
+        <v>-0.021875</v>
+      </c>
+      <c r="P4">
+        <v>0.056</v>
+      </c>
+      <c r="Q4">
+        <v>0.001272727272727273</v>
+      </c>
+      <c r="R4">
+        <v>-0.021875</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1.57</v>
+      </c>
+      <c r="V4">
+        <v>0.03568181818181818</v>
+      </c>
+      <c r="W4">
+        <v>-0.04680073126142596</v>
+      </c>
+      <c r="X4">
+        <v>0.08488688235886503</v>
+      </c>
+      <c r="Y4">
+        <v>-0.131687613620291</v>
+      </c>
+      <c r="Z4">
+        <v>0.1584182733636252</v>
+      </c>
+      <c r="AA4">
+        <v>0.008240206312169962</v>
+      </c>
+      <c r="AB4">
+        <v>0.06832266795469899</v>
+      </c>
+      <c r="AC4">
+        <v>-0.06008246164252903</v>
+      </c>
+      <c r="AD4">
+        <v>23.5</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>23.5</v>
+      </c>
+      <c r="AG4">
+        <v>21.93</v>
+      </c>
+      <c r="AH4">
+        <v>0.3481481481481482</v>
+      </c>
+      <c r="AI4">
+        <v>0.3092105263157895</v>
+      </c>
+      <c r="AJ4">
+        <v>0.3326255119065675</v>
+      </c>
+      <c r="AK4">
+        <v>0.294639258363563</v>
+      </c>
+      <c r="AL4">
+        <v>2.42</v>
+      </c>
+      <c r="AM4">
+        <v>1.962</v>
+      </c>
+      <c r="AN4">
+        <v>23.03921568627451</v>
+      </c>
+      <c r="AO4">
+        <v>0.2772727272727273</v>
+      </c>
+      <c r="AP4">
+        <v>21.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0.3419979612640163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Monteiro Aranha S.A. (BOVESPA:MOAR3)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Diversified</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.764</v>
+      </c>
+      <c r="G5">
+        <v>-0.4476683937823834</v>
+      </c>
+      <c r="H5">
+        <v>-0.4476683937823834</v>
+      </c>
+      <c r="I5">
+        <v>-0.3113989637305699</v>
+      </c>
+      <c r="J5">
+        <v>-0.3113989637305699</v>
+      </c>
+      <c r="K5">
+        <v>-13.4</v>
+      </c>
+      <c r="L5">
+        <v>-0.6943005181347151</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>0.02449133383571967</v>
+      </c>
+      <c r="O5">
+        <v>-0.9701492537313433</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>0.02449133383571967</v>
+      </c>
+      <c r="R5">
+        <v>-0.9701492537313433</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>26.5</v>
+      </c>
+      <c r="V5">
+        <v>0.04992464204973625</v>
+      </c>
+      <c r="W5">
+        <v>-0.05263157894736843</v>
+      </c>
+      <c r="X5">
+        <v>0.06872382910606704</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1213554080534355</v>
+      </c>
+      <c r="Z5">
+        <v>0.06674043848122278</v>
+      </c>
+      <c r="AA5">
+        <v>-0.02078290338197663</v>
+      </c>
+      <c r="AB5">
+        <v>0.0653523879880835</v>
+      </c>
+      <c r="AC5">
+        <v>-0.08613529137006012</v>
+      </c>
+      <c r="AD5">
+        <v>50.9</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>50.9</v>
+      </c>
+      <c r="AG5">
+        <v>24.4</v>
+      </c>
+      <c r="AH5">
+        <v>0.08750214887399003</v>
+      </c>
+      <c r="AI5">
+        <v>0.243191591017678</v>
+      </c>
+      <c r="AJ5">
+        <v>0.04394812680115274</v>
+      </c>
+      <c r="AK5">
+        <v>0.1334792122538293</v>
+      </c>
+      <c r="AL5">
+        <v>1.18</v>
+      </c>
+      <c r="AM5">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AN5">
+        <v>-8.427152317880795</v>
+      </c>
+      <c r="AO5">
+        <v>-5.093220338983051</v>
+      </c>
+      <c r="AP5">
+        <v>-4.039735099337748</v>
+      </c>
+      <c r="AQ5">
+        <v>60.09999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Companhia Habitasul de Participações (BOVESPA:HBTS5)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BOVESPA:HBTS5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.348148148148148</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>66.6584148300926</v>
+      </c>
+      <c r="I2">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="J2">
+        <v>71.16341483009261</v>
+      </c>
+      <c r="K2">
+        <v>23.5</v>
+      </c>
+      <c r="L2">
+        <v>6.075</v>
+      </c>
+      <c r="M2">
+        <v>0.068322667954699</v>
+      </c>
+      <c r="N2">
+        <v>0.06398209342601389</v>
+      </c>
+      <c r="O2">
+        <v>0.0373088197086008</v>
+      </c>
+      <c r="P2">
+        <v>0.014916</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.084886882358865</v>
+      </c>
+      <c r="T2">
+        <v>0.0688347839846306</v>
+      </c>
+      <c r="U2">
+        <v>0.990716928772836</v>
+      </c>
+      <c r="V2">
+        <v>0.780322147226249</v>
+      </c>
+      <c r="W2">
+        <v>4.887286499872538</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>44</v>
+      </c>
+      <c r="AB2">
+        <v>0.07629513553633499</v>
+      </c>
+      <c r="AC2">
+        <v>0.05652851471000127</v>
+      </c>
+      <c r="AD2">
+        <v>0.34</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.02</v>
+      </c>
+      <c r="AH2">
+        <v>0.349</v>
+      </c>
+      <c r="AI2">
+        <v>1.949000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>23.5</v>
+      </c>
+      <c r="AK2">
+        <v>23.5</v>
+      </c>
+      <c r="AL2">
+        <v>2.42</v>
+      </c>
+      <c r="AM2">
+        <v>23.5</v>
+      </c>
+      <c r="AN2">
+        <v>1.57</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06518678917476158</v>
+      </c>
+      <c r="C2">
+        <v>71.19941610556222</v>
+      </c>
+      <c r="D2">
+        <v>69.62941610556223</v>
+      </c>
+      <c r="E2">
+        <v>-23.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.57</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.02</v>
+      </c>
+      <c r="K2">
+        <v>0.349</v>
+      </c>
+      <c r="L2">
+        <v>0.671</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.671</v>
+      </c>
+      <c r="O2">
+        <v>0.22814</v>
+      </c>
+      <c r="P2">
+        <v>0.44286</v>
+      </c>
+      <c r="Q2">
+        <v>0.79186</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06518678917476158</v>
+      </c>
+      <c r="T2">
+        <v>0.7325078955806548</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.34</v>
+      </c>
+      <c r="W2">
+        <v>0.010692</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06501069409156737</v>
+      </c>
+      <c r="C3">
+        <v>70.74450666486705</v>
+      </c>
       <c r="D3">
-        <v>0.116</v>
+        <v>69.84950666486705</v>
       </c>
       <c r="E3">
-        <v>-0.111</v>
+        <v>-22.825</v>
+      </c>
+      <c r="F3">
+        <v>0.675</v>
       </c>
       <c r="G3">
-        <v>-17.08333333333333</v>
+        <v>1.57</v>
       </c>
       <c r="H3">
-        <v>-17.08333333333333</v>
+        <v>44</v>
       </c>
       <c r="I3">
-        <v>-17.57246376811594</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-16.11885922847399</v>
+        <v>1.02</v>
       </c>
       <c r="K3">
-        <v>24.4</v>
+        <v>0.349</v>
       </c>
       <c r="L3">
-        <v>44.20289855072463</v>
+        <v>0.671</v>
       </c>
       <c r="M3">
-        <v>43.9</v>
+        <v>0.010935</v>
       </c>
       <c r="N3">
-        <v>0.08468364197530864</v>
+        <v>0.660065</v>
       </c>
       <c r="O3">
-        <v>1.799180327868853</v>
+        <v>0.2244221</v>
       </c>
       <c r="P3">
-        <v>43.9</v>
+        <v>0.4356429</v>
       </c>
       <c r="Q3">
-        <v>0.08468364197530864</v>
+        <v>0.7846428999999999</v>
       </c>
       <c r="R3">
-        <v>1.799180327868853</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.06555936776925998</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.7373912815511924</v>
       </c>
       <c r="U3">
-        <v>5.22</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.01006944444444445</v>
+        <v>0.34</v>
       </c>
       <c r="W3">
-        <v>0.08692554328464552</v>
-      </c>
-      <c r="X3">
-        <v>0.07844651135234372</v>
+        <v>0.010692</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>0.008479031932301803</v>
+        <v>61.3625971650663</v>
       </c>
       <c r="Z3">
-        <v>0.001916799777762345</v>
-      </c>
-      <c r="AA3">
-        <v>-0.03089662578692148</v>
-      </c>
-      <c r="AB3">
-        <v>0.07582344694184849</v>
-      </c>
-      <c r="AC3">
-        <v>-0.10672007272877</v>
-      </c>
-      <c r="AD3">
-        <v>39.8</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>39.8</v>
-      </c>
-      <c r="AG3">
-        <v>34.58</v>
-      </c>
-      <c r="AH3">
-        <v>0.07130060910068076</v>
-      </c>
-      <c r="AI3">
-        <v>0.1351902173913044</v>
-      </c>
-      <c r="AJ3">
-        <v>0.06253390719375022</v>
-      </c>
-      <c r="AK3">
-        <v>0.1195795006570302</v>
-      </c>
-      <c r="AL3">
-        <v>0.189</v>
-      </c>
-      <c r="AM3">
-        <v>-2.491</v>
-      </c>
-      <c r="AN3">
-        <v>-4.137214137214137</v>
-      </c>
-      <c r="AO3">
-        <v>-51.32275132275132</v>
-      </c>
-      <c r="AP3">
-        <v>-3.594594594594595</v>
-      </c>
-      <c r="AQ3">
-        <v>3.894018466479325</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0648345990083732</v>
+      </c>
+      <c r="C4">
+        <v>70.29099299783522</v>
+      </c>
+      <c r="D4">
+        <v>70.07099299783522</v>
+      </c>
+      <c r="E4">
+        <v>-22.15</v>
+      </c>
+      <c r="F4">
+        <v>1.35</v>
+      </c>
+      <c r="G4">
+        <v>1.57</v>
+      </c>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.02</v>
+      </c>
+      <c r="K4">
+        <v>0.349</v>
+      </c>
+      <c r="L4">
+        <v>0.671</v>
+      </c>
+      <c r="M4">
+        <v>0.02187</v>
+      </c>
+      <c r="N4">
+        <v>0.64913</v>
+      </c>
+      <c r="O4">
+        <v>0.2207042</v>
+      </c>
+      <c r="P4">
+        <v>0.4284258</v>
+      </c>
+      <c r="Q4">
+        <v>0.7774257999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06593955000854407</v>
+      </c>
+      <c r="T4">
+        <v>0.7423743284599044</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.34</v>
+      </c>
+      <c r="W4">
+        <v>0.010692</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>30.68129858253315</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06465850392517901</v>
+      </c>
+      <c r="C5">
+        <v>69.83888842431078</v>
+      </c>
+      <c r="D5">
+        <v>70.29388842431079</v>
+      </c>
+      <c r="E5">
+        <v>-21.475</v>
+      </c>
+      <c r="F5">
+        <v>2.025</v>
+      </c>
+      <c r="G5">
+        <v>1.57</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.02</v>
+      </c>
+      <c r="K5">
+        <v>0.349</v>
+      </c>
+      <c r="L5">
+        <v>0.671</v>
+      </c>
+      <c r="M5">
+        <v>0.03280499999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.6381950000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.2169863</v>
+      </c>
+      <c r="P5">
+        <v>0.4212087</v>
+      </c>
+      <c r="Q5">
+        <v>0.7702087</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06632757105688558</v>
+      </c>
+      <c r="T5">
+        <v>0.7474601186038476</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.34</v>
+      </c>
+      <c r="W5">
+        <v>0.010692</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>20.45419905502211</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06448240884198482</v>
+      </c>
+      <c r="C6">
+        <v>69.38820643416004</v>
+      </c>
+      <c r="D6">
+        <v>70.51820643416005</v>
+      </c>
+      <c r="E6">
+        <v>-20.8</v>
+      </c>
+      <c r="F6">
+        <v>2.7</v>
+      </c>
+      <c r="G6">
+        <v>1.57</v>
+      </c>
+      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <v>0.349</v>
+      </c>
+      <c r="L6">
+        <v>0.671</v>
+      </c>
+      <c r="M6">
+        <v>0.04374</v>
+      </c>
+      <c r="N6">
+        <v>0.62726</v>
+      </c>
+      <c r="O6">
+        <v>0.2132684</v>
+      </c>
+      <c r="P6">
+        <v>0.4139916</v>
+      </c>
+      <c r="Q6">
+        <v>0.7629916</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06672367587706753</v>
+      </c>
+      <c r="T6">
+        <v>0.7526518627091229</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.34</v>
+      </c>
+      <c r="W6">
+        <v>0.010692</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>15.34064929126658</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06435911375879062</v>
+      </c>
+      <c r="C7">
+        <v>68.87111940324806</v>
+      </c>
+      <c r="D7">
+        <v>70.67611940324807</v>
+      </c>
+      <c r="E7">
+        <v>-20.125</v>
+      </c>
+      <c r="F7">
+        <v>3.375</v>
+      </c>
+      <c r="G7">
+        <v>1.57</v>
+      </c>
+      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.02</v>
+      </c>
+      <c r="K7">
+        <v>0.349</v>
+      </c>
+      <c r="L7">
+        <v>0.671</v>
+      </c>
+      <c r="M7">
+        <v>0.060075</v>
+      </c>
+      <c r="N7">
+        <v>0.6109250000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2077145</v>
+      </c>
+      <c r="P7">
+        <v>0.4032105</v>
+      </c>
+      <c r="Q7">
+        <v>0.7522105</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06712811974609539</v>
+      </c>
+      <c r="T7">
+        <v>0.7579529066902986</v>
+      </c>
+      <c r="U7">
+        <v>0.0178</v>
+      </c>
+      <c r="V7">
+        <v>0.34</v>
+      </c>
+      <c r="W7">
+        <v>0.011748</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>11.16937161880982</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06428069867559644</v>
+      </c>
+      <c r="C8">
+        <v>68.29691975530521</v>
+      </c>
+      <c r="D8">
+        <v>70.77691975530522</v>
+      </c>
+      <c r="E8">
+        <v>-19.45</v>
+      </c>
+      <c r="F8">
+        <v>4.05</v>
+      </c>
+      <c r="G8">
+        <v>1.57</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.02</v>
+      </c>
+      <c r="K8">
+        <v>0.349</v>
+      </c>
+      <c r="L8">
+        <v>0.671</v>
+      </c>
+      <c r="M8">
+        <v>0.08099999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.2006</v>
+      </c>
+      <c r="P8">
+        <v>0.3894000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.7384000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.067541168803826</v>
+      </c>
+      <c r="T8">
+        <v>0.7633667388412867</v>
+      </c>
+      <c r="U8">
+        <v>0.02</v>
+      </c>
+      <c r="V8">
+        <v>0.34</v>
+      </c>
+      <c r="W8">
+        <v>0.0132</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>8.283950617283953</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06418050359240225</v>
+      </c>
+      <c r="C9">
+        <v>67.75113685243282</v>
+      </c>
+      <c r="D9">
+        <v>70.90613685243282</v>
+      </c>
+      <c r="E9">
+        <v>-18.775</v>
+      </c>
+      <c r="F9">
+        <v>4.725000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.57</v>
+      </c>
+      <c r="H9">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.02</v>
+      </c>
+      <c r="K9">
+        <v>0.349</v>
+      </c>
+      <c r="L9">
+        <v>0.671</v>
+      </c>
+      <c r="M9">
+        <v>0.09969750000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.5713025</v>
+      </c>
+      <c r="O9">
+        <v>0.19424285</v>
+      </c>
+      <c r="P9">
+        <v>0.37705965</v>
+      </c>
+      <c r="Q9">
+        <v>0.7260596500000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06796310063699167</v>
+      </c>
+      <c r="T9">
+        <v>0.7688969974901454</v>
+      </c>
+      <c r="U9">
+        <v>0.0211</v>
+      </c>
+      <c r="V9">
+        <v>0.34</v>
+      </c>
+      <c r="W9">
+        <v>0.013926</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>6.730359336994408</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06411594850920807</v>
+      </c>
+      <c r="C10">
+        <v>67.15964086336345</v>
+      </c>
+      <c r="D10">
+        <v>70.98964086336346</v>
+      </c>
+      <c r="E10">
+        <v>-18.1</v>
+      </c>
+      <c r="F10">
+        <v>5.4</v>
+      </c>
+      <c r="G10">
+        <v>1.57</v>
+      </c>
+      <c r="H10">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.02</v>
+      </c>
+      <c r="K10">
+        <v>0.349</v>
+      </c>
+      <c r="L10">
+        <v>0.671</v>
+      </c>
+      <c r="M10">
+        <v>0.12204</v>
+      </c>
+      <c r="N10">
+        <v>0.54896</v>
+      </c>
+      <c r="O10">
+        <v>0.1866464</v>
+      </c>
+      <c r="P10">
+        <v>0.3623136</v>
+      </c>
+      <c r="Q10">
+        <v>0.7113136</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06839420490131311</v>
+      </c>
+      <c r="T10">
+        <v>0.7745474791531097</v>
+      </c>
+      <c r="U10">
+        <v>0.0226</v>
+      </c>
+      <c r="V10">
+        <v>0.34</v>
+      </c>
+      <c r="W10">
+        <v>0.014916</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>5.498197312356605</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06398209342601387</v>
+      </c>
+      <c r="C11">
+        <v>66.6584148300926</v>
+      </c>
+      <c r="D11">
+        <v>71.16341483009261</v>
+      </c>
+      <c r="E11">
+        <v>-17.425</v>
+      </c>
+      <c r="F11">
+        <v>6.075</v>
+      </c>
+      <c r="G11">
+        <v>1.57</v>
+      </c>
+      <c r="H11">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.02</v>
+      </c>
+      <c r="K11">
+        <v>0.349</v>
+      </c>
+      <c r="L11">
+        <v>0.671</v>
+      </c>
+      <c r="M11">
+        <v>0.137295</v>
+      </c>
+      <c r="N11">
+        <v>0.5337050000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1814597000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.3522453</v>
+      </c>
+      <c r="Q11">
+        <v>0.7012453000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06883478398463062</v>
+      </c>
+      <c r="T11">
+        <v>0.7803221472262492</v>
+      </c>
+      <c r="U11">
+        <v>0.0226</v>
+      </c>
+      <c r="V11">
+        <v>0.34</v>
+      </c>
+      <c r="W11">
+        <v>0.014916</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>4.887286499872538</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07004401009459441</v>
+      </c>
+      <c r="C12">
+        <v>58.88169912380539</v>
+      </c>
+      <c r="D12">
+        <v>64.0616991238054</v>
+      </c>
+      <c r="E12">
+        <v>-16.75</v>
+      </c>
+      <c r="F12">
+        <v>6.75</v>
+      </c>
+      <c r="G12">
+        <v>1.57</v>
+      </c>
+      <c r="H12">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.02</v>
+      </c>
+      <c r="K12">
+        <v>0.349</v>
+      </c>
+      <c r="L12">
+        <v>0.671</v>
+      </c>
+      <c r="M12">
+        <v>0.73575</v>
+      </c>
+      <c r="N12">
+        <v>-0.06474999999999997</v>
+      </c>
+      <c r="O12">
+        <v>-0.02201499999999999</v>
+      </c>
+      <c r="P12">
+        <v>-0.04273499999999998</v>
+      </c>
+      <c r="Q12">
+        <v>0.306265</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06947095771827361</v>
+      </c>
+      <c r="T12">
+        <v>0.7886604735057798</v>
+      </c>
+      <c r="U12">
+        <v>0.109</v>
+      </c>
+      <c r="V12">
+        <v>0.3100781515460415</v>
+      </c>
+      <c r="W12">
+        <v>0.07520148148148148</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.9119945633707102</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07104101009459439</v>
+      </c>
+      <c r="C13">
+        <v>57.17222440548483</v>
+      </c>
+      <c r="D13">
+        <v>63.02722440548483</v>
+      </c>
+      <c r="E13">
+        <v>-16.075</v>
+      </c>
+      <c r="F13">
+        <v>7.425</v>
+      </c>
+      <c r="G13">
+        <v>1.57</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.02</v>
+      </c>
+      <c r="K13">
+        <v>0.349</v>
+      </c>
+      <c r="L13">
+        <v>0.671</v>
+      </c>
+      <c r="M13">
+        <v>0.809325</v>
+      </c>
+      <c r="N13">
+        <v>-0.1383249999999999</v>
+      </c>
+      <c r="O13">
+        <v>-0.04703049999999998</v>
+      </c>
+      <c r="P13">
+        <v>-0.09129449999999995</v>
+      </c>
+      <c r="Q13">
+        <v>0.2577055</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07014703589488341</v>
+      </c>
+      <c r="T13">
+        <v>0.7975218271406761</v>
+      </c>
+      <c r="U13">
+        <v>0.109</v>
+      </c>
+      <c r="V13">
+        <v>0.2818892286782196</v>
+      </c>
+      <c r="W13">
+        <v>0.07827407407407407</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.8290859667006457</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07616765438506114</v>
+      </c>
+      <c r="C14">
+        <v>51.66502020879429</v>
+      </c>
+      <c r="D14">
+        <v>58.19502020879429</v>
+      </c>
+      <c r="E14">
+        <v>-15.4</v>
+      </c>
+      <c r="F14">
+        <v>8.1</v>
+      </c>
+      <c r="G14">
+        <v>1.57</v>
+      </c>
+      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.02</v>
+      </c>
+      <c r="K14">
+        <v>0.349</v>
+      </c>
+      <c r="L14">
+        <v>0.671</v>
+      </c>
+      <c r="M14">
+        <v>1.13562</v>
+      </c>
+      <c r="N14">
+        <v>-0.4646199999999998</v>
+      </c>
+      <c r="O14">
+        <v>-0.1579707999999999</v>
+      </c>
+      <c r="P14">
+        <v>-0.3066491999999998</v>
+      </c>
+      <c r="Q14">
+        <v>0.04235080000000013</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07127671163285566</v>
+      </c>
+      <c r="T14">
+        <v>0.8123284819821798</v>
+      </c>
+      <c r="U14">
+        <v>0.1402</v>
+      </c>
+      <c r="V14">
+        <v>0.200894665469083</v>
+      </c>
+      <c r="W14">
+        <v>0.1120345679012345</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.5908666631443618</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07747665438506114</v>
+      </c>
+      <c r="C15">
+        <v>49.87266879076982</v>
+      </c>
+      <c r="D15">
+        <v>57.07766879076982</v>
+      </c>
+      <c r="E15">
+        <v>-14.725</v>
+      </c>
+      <c r="F15">
+        <v>8.775</v>
+      </c>
+      <c r="G15">
+        <v>1.57</v>
+      </c>
+      <c r="H15">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.02</v>
+      </c>
+      <c r="K15">
+        <v>0.349</v>
+      </c>
+      <c r="L15">
+        <v>0.671</v>
+      </c>
+      <c r="M15">
+        <v>1.230255</v>
+      </c>
+      <c r="N15">
+        <v>-0.5592549999999998</v>
+      </c>
+      <c r="O15">
+        <v>-0.1901466999999999</v>
+      </c>
+      <c r="P15">
+        <v>-0.3691082999999999</v>
+      </c>
+      <c r="Q15">
+        <v>-0.02010829999999991</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07198908762863562</v>
+      </c>
+      <c r="T15">
+        <v>0.8216655909704808</v>
+      </c>
+      <c r="U15">
+        <v>0.1402</v>
+      </c>
+      <c r="V15">
+        <v>0.1854412296637689</v>
+      </c>
+      <c r="W15">
+        <v>0.1142011396011396</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.5454153813640262</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07878565438506115</v>
+      </c>
+      <c r="C16">
+        <v>48.12241564523448</v>
+      </c>
+      <c r="D16">
+        <v>56.00241564523449</v>
+      </c>
+      <c r="E16">
+        <v>-14.05</v>
+      </c>
+      <c r="F16">
+        <v>9.450000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.57</v>
+      </c>
+      <c r="H16">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.02</v>
+      </c>
+      <c r="K16">
+        <v>0.349</v>
+      </c>
+      <c r="L16">
+        <v>0.671</v>
+      </c>
+      <c r="M16">
+        <v>1.32489</v>
+      </c>
+      <c r="N16">
+        <v>-0.6538900000000001</v>
+      </c>
+      <c r="O16">
+        <v>-0.2223226</v>
+      </c>
+      <c r="P16">
+        <v>-0.4315674</v>
+      </c>
+      <c r="Q16">
+        <v>-0.08256740000000007</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07271803050803836</v>
+      </c>
+      <c r="T16">
+        <v>0.831219842028277</v>
+      </c>
+      <c r="U16">
+        <v>0.1402</v>
+      </c>
+      <c r="V16">
+        <v>0.1721954275449283</v>
+      </c>
+      <c r="W16">
+        <v>0.1160582010582011</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.5064571398380242</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08693868981128004</v>
+      </c>
+      <c r="C17">
+        <v>41.56646016003393</v>
+      </c>
+      <c r="D17">
+        <v>50.12146016003393</v>
+      </c>
+      <c r="E17">
+        <v>-13.375</v>
+      </c>
+      <c r="F17">
+        <v>10.125</v>
+      </c>
+      <c r="G17">
+        <v>1.57</v>
+      </c>
+      <c r="H17">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.02</v>
+      </c>
+      <c r="K17">
+        <v>0.349</v>
+      </c>
+      <c r="L17">
+        <v>0.671</v>
+      </c>
+      <c r="M17">
+        <v>1.8599625</v>
+      </c>
+      <c r="N17">
+        <v>-1.1889625</v>
+      </c>
+      <c r="O17">
+        <v>-0.40424725</v>
+      </c>
+      <c r="P17">
+        <v>-0.7847152499999999</v>
+      </c>
+      <c r="Q17">
+        <v>-0.4357152499999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07383946078015517</v>
+      </c>
+      <c r="T17">
+        <v>0.8459184235857178</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.122658386929844</v>
+      </c>
+      <c r="W17">
+        <v>0.1611676543209877</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.3607599615583648</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08868268981128005</v>
+      </c>
+      <c r="C18">
+        <v>39.79031548067238</v>
+      </c>
+      <c r="D18">
+        <v>49.02031548067238</v>
+      </c>
+      <c r="E18">
+        <v>-12.7</v>
+      </c>
+      <c r="F18">
+        <v>10.8</v>
+      </c>
+      <c r="G18">
+        <v>1.57</v>
+      </c>
+      <c r="H18">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.02</v>
+      </c>
+      <c r="K18">
+        <v>0.349</v>
+      </c>
+      <c r="L18">
+        <v>0.671</v>
+      </c>
+      <c r="M18">
+        <v>1.98396</v>
+      </c>
+      <c r="N18">
+        <v>-1.31296</v>
+      </c>
+      <c r="O18">
+        <v>-0.4464064000000001</v>
+      </c>
+      <c r="P18">
+        <v>-0.8665536</v>
+      </c>
+      <c r="Q18">
+        <v>-0.5175536000000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07460778769420465</v>
+      </c>
+      <c r="T18">
+        <v>0.8559888810093573</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.1149922377467288</v>
+      </c>
+      <c r="W18">
+        <v>0.1625759259259259</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.3382124639609669</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09042668981128005</v>
+      </c>
+      <c r="C19">
+        <v>38.06151394634174</v>
+      </c>
+      <c r="D19">
+        <v>47.96651394634174</v>
+      </c>
+      <c r="E19">
+        <v>-12.025</v>
+      </c>
+      <c r="F19">
+        <v>11.475</v>
+      </c>
+      <c r="G19">
+        <v>1.57</v>
+      </c>
+      <c r="H19">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.02</v>
+      </c>
+      <c r="K19">
+        <v>0.349</v>
+      </c>
+      <c r="L19">
+        <v>0.671</v>
+      </c>
+      <c r="M19">
+        <v>2.1079575</v>
+      </c>
+      <c r="N19">
+        <v>-1.4369575</v>
+      </c>
+      <c r="O19">
+        <v>-0.4885655500000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.9483919500000002</v>
+      </c>
+      <c r="Q19">
+        <v>-0.5993919500000002</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07539462850979747</v>
+      </c>
+      <c r="T19">
+        <v>0.8663020000576628</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.1082279884675094</v>
+      </c>
+      <c r="W19">
+        <v>0.1638185185185185</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.3183176131397336</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09217068981128004</v>
+      </c>
+      <c r="C20">
+        <v>36.37706657100406</v>
+      </c>
+      <c r="D20">
+        <v>46.95706657100406</v>
+      </c>
+      <c r="E20">
+        <v>-11.35</v>
+      </c>
+      <c r="F20">
+        <v>12.15</v>
+      </c>
+      <c r="G20">
+        <v>1.57</v>
+      </c>
+      <c r="H20">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.02</v>
+      </c>
+      <c r="K20">
+        <v>0.349</v>
+      </c>
+      <c r="L20">
+        <v>0.671</v>
+      </c>
+      <c r="M20">
+        <v>2.231955</v>
+      </c>
+      <c r="N20">
+        <v>-1.560955</v>
+      </c>
+      <c r="O20">
+        <v>-0.5307247</v>
+      </c>
+      <c r="P20">
+        <v>-1.0302303</v>
+      </c>
+      <c r="Q20">
+        <v>-0.6812303</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07620066056479501</v>
+      </c>
+      <c r="T20">
+        <v>0.8768666585949514</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.1022153224415367</v>
+      </c>
+      <c r="W20">
+        <v>0.1649230452674897</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.3006333012986373</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09391468981128004</v>
+      </c>
+      <c r="C21">
+        <v>34.73423079352287</v>
+      </c>
+      <c r="D21">
+        <v>45.98923079352286</v>
+      </c>
+      <c r="E21">
+        <v>-10.675</v>
+      </c>
+      <c r="F21">
+        <v>12.825</v>
+      </c>
+      <c r="G21">
+        <v>1.57</v>
+      </c>
+      <c r="H21">
+        <v>44</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.02</v>
+      </c>
+      <c r="K21">
+        <v>0.349</v>
+      </c>
+      <c r="L21">
+        <v>0.671</v>
+      </c>
+      <c r="M21">
+        <v>2.3559525</v>
+      </c>
+      <c r="N21">
+        <v>-1.6849525</v>
+      </c>
+      <c r="O21">
+        <v>-0.57288385</v>
+      </c>
+      <c r="P21">
+        <v>-1.11206865</v>
+      </c>
+      <c r="Q21">
+        <v>-0.7630686499999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07702659464584184</v>
+      </c>
+      <c r="T21">
+        <v>0.8876921728985927</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.09683556862882424</v>
+      </c>
+      <c r="W21">
+        <v>0.165911306042885</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.2848104959671302</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09565868981128003</v>
+      </c>
+      <c r="C22">
+        <v>33.13048559510477</v>
+      </c>
+      <c r="D22">
+        <v>45.06048559510477</v>
+      </c>
+      <c r="E22">
+        <v>-10</v>
+      </c>
+      <c r="F22">
+        <v>13.5</v>
+      </c>
+      <c r="G22">
+        <v>1.57</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>0.349</v>
+      </c>
+      <c r="L22">
+        <v>0.671</v>
+      </c>
+      <c r="M22">
+        <v>2.47995</v>
+      </c>
+      <c r="N22">
+        <v>-1.80895</v>
+      </c>
+      <c r="O22">
+        <v>-0.6150430000000001</v>
+      </c>
+      <c r="P22">
+        <v>-1.193907</v>
+      </c>
+      <c r="Q22">
+        <v>-0.8449069999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07787317707891486</v>
+      </c>
+      <c r="T22">
+        <v>0.8987883250598251</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.09199379019738302</v>
+      </c>
+      <c r="W22">
+        <v>0.1668007407407407</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.2705699711687736</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09740268981128004</v>
+      </c>
+      <c r="C23">
+        <v>31.56350957205488</v>
+      </c>
+      <c r="D23">
+        <v>44.16850957205488</v>
+      </c>
+      <c r="E23">
+        <v>-9.325000000000001</v>
+      </c>
+      <c r="F23">
+        <v>14.175</v>
+      </c>
+      <c r="G23">
+        <v>1.57</v>
+      </c>
+      <c r="H23">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.02</v>
+      </c>
+      <c r="K23">
+        <v>0.349</v>
+      </c>
+      <c r="L23">
+        <v>0.671</v>
+      </c>
+      <c r="M23">
+        <v>2.6039475</v>
+      </c>
+      <c r="N23">
+        <v>-1.9329475</v>
+      </c>
+      <c r="O23">
+        <v>-0.65720215</v>
+      </c>
+      <c r="P23">
+        <v>-1.27574535</v>
+      </c>
+      <c r="Q23">
+        <v>-0.9267453499999998</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07874119197864797</v>
+      </c>
+      <c r="T23">
+        <v>0.9101653924656458</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.08761313352131718</v>
+      </c>
+      <c r="W23">
+        <v>0.167605467372134</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.2576856868274034</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09914668981128005</v>
+      </c>
+      <c r="C24">
+        <v>30.03116156228999</v>
+      </c>
+      <c r="D24">
+        <v>43.31116156228999</v>
+      </c>
+      <c r="E24">
+        <v>-8.65</v>
+      </c>
+      <c r="F24">
+        <v>14.85</v>
+      </c>
+      <c r="G24">
+        <v>1.57</v>
+      </c>
+      <c r="H24">
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.02</v>
+      </c>
+      <c r="K24">
+        <v>0.349</v>
+      </c>
+      <c r="L24">
+        <v>0.671</v>
+      </c>
+      <c r="M24">
+        <v>2.727945</v>
+      </c>
+      <c r="N24">
+        <v>-2.056945</v>
+      </c>
+      <c r="O24">
+        <v>-0.6993613</v>
+      </c>
+      <c r="P24">
+        <v>-1.3575837</v>
+      </c>
+      <c r="Q24">
+        <v>-1.0085837</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07963146367068193</v>
+      </c>
+      <c r="T24">
+        <v>0.9218341795485386</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.08363071836125729</v>
+      </c>
+      <c r="W24">
+        <v>0.168337037037037</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.2459727010625216</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.10089068981128</v>
+      </c>
+      <c r="C25">
+        <v>28.53146348522266</v>
+      </c>
+      <c r="D25">
+        <v>42.48646348522266</v>
+      </c>
+      <c r="E25">
+        <v>-7.975</v>
+      </c>
+      <c r="F25">
+        <v>15.525</v>
+      </c>
+      <c r="G25">
+        <v>1.57</v>
+      </c>
+      <c r="H25">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.02</v>
+      </c>
+      <c r="K25">
+        <v>0.349</v>
+      </c>
+      <c r="L25">
+        <v>0.671</v>
+      </c>
+      <c r="M25">
+        <v>2.8519425</v>
+      </c>
+      <c r="N25">
+        <v>-2.1809425</v>
+      </c>
+      <c r="O25">
+        <v>-0.7415204500000002</v>
+      </c>
+      <c r="P25">
+        <v>-1.43942205</v>
+      </c>
+      <c r="Q25">
+        <v>-1.09042205</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.0805448593027687</v>
+      </c>
+      <c r="T25">
+        <v>0.9338060520102078</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.07999460017163741</v>
+      </c>
+      <c r="W25">
+        <v>0.1690049919484702</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2352782357989335</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.10263468981128</v>
+      </c>
+      <c r="C26">
+        <v>27.06258510551144</v>
+      </c>
+      <c r="D26">
+        <v>41.69258510551144</v>
+      </c>
+      <c r="E26">
+        <v>-7.300000000000001</v>
+      </c>
+      <c r="F26">
+        <v>16.2</v>
+      </c>
+      <c r="G26">
+        <v>1.57</v>
+      </c>
+      <c r="H26">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.02</v>
+      </c>
+      <c r="K26">
+        <v>0.349</v>
+      </c>
+      <c r="L26">
+        <v>0.671</v>
+      </c>
+      <c r="M26">
+        <v>2.97594</v>
+      </c>
+      <c r="N26">
+        <v>-2.30494</v>
+      </c>
+      <c r="O26">
+        <v>-0.7836796000000001</v>
+      </c>
+      <c r="P26">
+        <v>-1.5212604</v>
+      </c>
+      <c r="Q26">
+        <v>-1.1722604</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08148229166201566</v>
+      </c>
+      <c r="T26">
+        <v>0.9460929737471844</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.07666149183115252</v>
+      </c>
+      <c r="W26">
+        <v>0.1696172839506173</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.2254749759739779</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.10437868981128</v>
+      </c>
+      <c r="C27">
+        <v>25.62283047365506</v>
+      </c>
+      <c r="D27">
+        <v>40.92783047365506</v>
+      </c>
+      <c r="E27">
+        <v>-6.625</v>
+      </c>
+      <c r="F27">
+        <v>16.875</v>
+      </c>
+      <c r="G27">
+        <v>1.57</v>
+      </c>
+      <c r="H27">
+        <v>44</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.02</v>
+      </c>
+      <c r="K27">
+        <v>0.349</v>
+      </c>
+      <c r="L27">
+        <v>0.671</v>
+      </c>
+      <c r="M27">
+        <v>3.0999375</v>
+      </c>
+      <c r="N27">
+        <v>-2.4289375</v>
+      </c>
+      <c r="O27">
+        <v>-0.8258387500000001</v>
+      </c>
+      <c r="P27">
+        <v>-1.60309875</v>
+      </c>
+      <c r="Q27">
+        <v>-1.25409875</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08244472221750919</v>
+      </c>
+      <c r="T27">
+        <v>0.9587075467304801</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.07359503215790641</v>
+      </c>
+      <c r="W27">
+        <v>0.1701805925925926</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.2164559769350189</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.10612268981128</v>
+      </c>
+      <c r="C28">
+        <v>24.2106258320036</v>
+      </c>
+      <c r="D28">
+        <v>40.1906258320036</v>
+      </c>
+      <c r="E28">
+        <v>-5.949999999999999</v>
+      </c>
+      <c r="F28">
+        <v>17.55</v>
+      </c>
+      <c r="G28">
+        <v>1.57</v>
+      </c>
+      <c r="H28">
+        <v>44</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.02</v>
+      </c>
+      <c r="K28">
+        <v>0.349</v>
+      </c>
+      <c r="L28">
+        <v>0.671</v>
+      </c>
+      <c r="M28">
+        <v>3.223935</v>
+      </c>
+      <c r="N28">
+        <v>-2.552935</v>
+      </c>
+      <c r="O28">
+        <v>-0.8679979</v>
+      </c>
+      <c r="P28">
+        <v>-1.6849371</v>
+      </c>
+      <c r="Q28">
+        <v>-1.3359371</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0834331644096377</v>
+      </c>
+      <c r="T28">
+        <v>0.9716630541187299</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.07076445399798693</v>
+      </c>
+      <c r="W28">
+        <v>0.1707005698005698</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.2081307470529028</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1078666898112801</v>
+      </c>
+      <c r="C29">
+        <v>22.82450880468721</v>
+      </c>
+      <c r="D29">
+        <v>39.47950880468721</v>
+      </c>
+      <c r="E29">
+        <v>-5.274999999999999</v>
+      </c>
+      <c r="F29">
+        <v>18.225</v>
+      </c>
+      <c r="G29">
+        <v>1.57</v>
+      </c>
+      <c r="H29">
+        <v>44</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.02</v>
+      </c>
+      <c r="K29">
+        <v>0.349</v>
+      </c>
+      <c r="L29">
+        <v>0.671</v>
+      </c>
+      <c r="M29">
+        <v>3.3479325</v>
+      </c>
+      <c r="N29">
+        <v>-2.6769325</v>
+      </c>
+      <c r="O29">
+        <v>-0.9101570500000002</v>
+      </c>
+      <c r="P29">
+        <v>-1.76677545</v>
+      </c>
+      <c r="Q29">
+        <v>-1.41777545</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08444868720976972</v>
+      </c>
+      <c r="T29">
+        <v>0.9849735069148768</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.06814354829435779</v>
+      </c>
+      <c r="W29">
+        <v>0.1711820301783265</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2004222008657581</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1096106898112801</v>
+      </c>
+      <c r="C30">
+        <v>21.46311871520712</v>
+      </c>
+      <c r="D30">
+        <v>38.79311871520712</v>
+      </c>
+      <c r="E30">
+        <v>-4.599999999999998</v>
+      </c>
+      <c r="F30">
+        <v>18.9</v>
+      </c>
+      <c r="G30">
+        <v>1.57</v>
+      </c>
+      <c r="H30">
+        <v>44</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.02</v>
+      </c>
+      <c r="K30">
+        <v>0.349</v>
+      </c>
+      <c r="L30">
+        <v>0.671</v>
+      </c>
+      <c r="M30">
+        <v>3.47193</v>
+      </c>
+      <c r="N30">
+        <v>-2.80093</v>
+      </c>
+      <c r="O30">
+        <v>-0.9523162000000002</v>
+      </c>
+      <c r="P30">
+        <v>-1.8486138</v>
+      </c>
+      <c r="Q30">
+        <v>-1.4996138</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08549241897657209</v>
+      </c>
+      <c r="T30">
+        <v>0.9986536945109169</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.06570985014098786</v>
+      </c>
+      <c r="W30">
+        <v>0.1716291005291005</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1932642651205526</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.11135468981128</v>
+      </c>
+      <c r="C31">
+        <v>20.12518789679565</v>
+      </c>
+      <c r="D31">
+        <v>38.13018789679565</v>
+      </c>
+      <c r="E31">
+        <v>-3.925000000000001</v>
+      </c>
+      <c r="F31">
+        <v>19.575</v>
+      </c>
+      <c r="G31">
+        <v>1.57</v>
+      </c>
+      <c r="H31">
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.02</v>
+      </c>
+      <c r="K31">
+        <v>0.349</v>
+      </c>
+      <c r="L31">
+        <v>0.671</v>
+      </c>
+      <c r="M31">
+        <v>3.5959275</v>
+      </c>
+      <c r="N31">
+        <v>-2.9249275</v>
+      </c>
+      <c r="O31">
+        <v>-0.9944753500000001</v>
+      </c>
+      <c r="P31">
+        <v>-1.93045215</v>
+      </c>
+      <c r="Q31">
+        <v>-1.58145215</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08656555163821394</v>
+      </c>
+      <c r="T31">
+        <v>1.012719239504028</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.0634439932395745</v>
+      </c>
+      <c r="W31">
+        <v>0.1720453384418902</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1865999801163956</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.11309868981128</v>
+      </c>
+      <c r="C32">
+        <v>18.80953387878333</v>
+      </c>
+      <c r="D32">
+        <v>37.48953387878333</v>
+      </c>
+      <c r="E32">
+        <v>-3.25</v>
+      </c>
+      <c r="F32">
+        <v>20.25</v>
+      </c>
+      <c r="G32">
+        <v>1.57</v>
+      </c>
+      <c r="H32">
+        <v>44</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.02</v>
+      </c>
+      <c r="K32">
+        <v>0.349</v>
+      </c>
+      <c r="L32">
+        <v>0.671</v>
+      </c>
+      <c r="M32">
+        <v>3.719925</v>
+      </c>
+      <c r="N32">
+        <v>-3.048925</v>
+      </c>
+      <c r="O32">
+        <v>-1.0366345</v>
+      </c>
+      <c r="P32">
+        <v>-2.0122905</v>
+      </c>
+      <c r="Q32">
+        <v>-1.6632905</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08766934523304556</v>
+      </c>
+      <c r="T32">
+        <v>1.027186657211229</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.06132919346492201</v>
+      </c>
+      <c r="W32">
+        <v>0.1724338271604938</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1803799807791825</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.11484268981128</v>
+      </c>
+      <c r="C33">
+        <v>17.51505234764644</v>
+      </c>
+      <c r="D33">
+        <v>36.87005234764644</v>
+      </c>
+      <c r="E33">
+        <v>-2.574999999999999</v>
+      </c>
+      <c r="F33">
+        <v>20.925</v>
+      </c>
+      <c r="G33">
+        <v>1.57</v>
+      </c>
+      <c r="H33">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.02</v>
+      </c>
+      <c r="K33">
+        <v>0.349</v>
+      </c>
+      <c r="L33">
+        <v>0.671</v>
+      </c>
+      <c r="M33">
+        <v>3.8439225</v>
+      </c>
+      <c r="N33">
+        <v>-3.1729225</v>
+      </c>
+      <c r="O33">
+        <v>-1.07879365</v>
+      </c>
+      <c r="P33">
+        <v>-2.09412885</v>
+      </c>
+      <c r="Q33">
+        <v>-1.74512885</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08880513284511869</v>
+      </c>
+      <c r="T33">
+        <v>1.042073420359217</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.0593508323854084</v>
+      </c>
+      <c r="W33">
+        <v>0.1727972520908005</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1745612717217894</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.11658668981128</v>
+      </c>
+      <c r="C34">
+        <v>16.24071079458516</v>
+      </c>
+      <c r="D34">
+        <v>36.27071079458516</v>
+      </c>
+      <c r="E34">
+        <v>-1.899999999999999</v>
+      </c>
+      <c r="F34">
+        <v>21.6</v>
+      </c>
+      <c r="G34">
+        <v>1.57</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.02</v>
+      </c>
+      <c r="K34">
+        <v>0.349</v>
+      </c>
+      <c r="L34">
+        <v>0.671</v>
+      </c>
+      <c r="M34">
+        <v>3.96792</v>
+      </c>
+      <c r="N34">
+        <v>-3.29692</v>
+      </c>
+      <c r="O34">
+        <v>-1.1209528</v>
+      </c>
+      <c r="P34">
+        <v>-2.1759672</v>
+      </c>
+      <c r="Q34">
+        <v>-1.8269672</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08997432597519396</v>
+      </c>
+      <c r="T34">
+        <v>1.057398029482147</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.05749611887336439</v>
+      </c>
+      <c r="W34">
+        <v>0.173137962962963</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1691062319804836</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.11833068981128</v>
+      </c>
+      <c r="C35">
+        <v>14.98554277276263</v>
+      </c>
+      <c r="D35">
+        <v>35.69054277276263</v>
+      </c>
+      <c r="E35">
+        <v>-1.224999999999998</v>
+      </c>
+      <c r="F35">
+        <v>22.275</v>
+      </c>
+      <c r="G35">
+        <v>1.57</v>
+      </c>
+      <c r="H35">
+        <v>44</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.02</v>
+      </c>
+      <c r="K35">
+        <v>0.349</v>
+      </c>
+      <c r="L35">
+        <v>0.671</v>
+      </c>
+      <c r="M35">
+        <v>4.0919175</v>
+      </c>
+      <c r="N35">
+        <v>-3.4209175</v>
+      </c>
+      <c r="O35">
+        <v>-1.16311195</v>
+      </c>
+      <c r="P35">
+        <v>-2.25780555</v>
+      </c>
+      <c r="Q35">
+        <v>-1.90880555</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09117842039273417</v>
+      </c>
+      <c r="T35">
+        <v>1.073180089623672</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.05575381224083819</v>
+      </c>
+      <c r="W35">
+        <v>0.173458024691358</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1639818007083477</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.12007468981128</v>
+      </c>
+      <c r="C36">
+        <v>13.74864269701663</v>
+      </c>
+      <c r="D36">
+        <v>35.12864269701663</v>
+      </c>
+      <c r="E36">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="F36">
+        <v>22.95</v>
+      </c>
+      <c r="G36">
+        <v>1.57</v>
+      </c>
+      <c r="H36">
+        <v>44</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.02</v>
+      </c>
+      <c r="K36">
+        <v>0.349</v>
+      </c>
+      <c r="L36">
+        <v>0.671</v>
+      </c>
+      <c r="M36">
+        <v>4.215915000000001</v>
+      </c>
+      <c r="N36">
+        <v>-3.544915</v>
+      </c>
+      <c r="O36">
+        <v>-1.2052711</v>
+      </c>
+      <c r="P36">
+        <v>-2.3396439</v>
+      </c>
+      <c r="Q36">
+        <v>-1.9906439</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09241900251989682</v>
+      </c>
+      <c r="T36">
+        <v>1.089440394011909</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.05411399423375471</v>
+      </c>
+      <c r="W36">
+        <v>0.1737592592592593</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1591588065698668</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.12181868981128</v>
+      </c>
+      <c r="C37">
+        <v>12.52916112718719</v>
+      </c>
+      <c r="D37">
+        <v>34.58416112718719</v>
+      </c>
+      <c r="E37">
+        <v>0.1250000000000036</v>
+      </c>
+      <c r="F37">
+        <v>23.625</v>
+      </c>
+      <c r="G37">
+        <v>1.57</v>
+      </c>
+      <c r="H37">
+        <v>44</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.02</v>
+      </c>
+      <c r="K37">
+        <v>0.349</v>
+      </c>
+      <c r="L37">
+        <v>0.671</v>
+      </c>
+      <c r="M37">
+        <v>4.339912500000001</v>
+      </c>
+      <c r="N37">
+        <v>-3.6689125</v>
+      </c>
+      <c r="O37">
+        <v>-1.24743025</v>
+      </c>
+      <c r="P37">
+        <v>-2.42148225</v>
+      </c>
+      <c r="Q37">
+        <v>-2.07248225</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.0936977564048183</v>
+      </c>
+      <c r="T37">
+        <v>1.106201015458246</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.0525678801127903</v>
+      </c>
+      <c r="W37">
+        <v>0.1740432804232804</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.154611412096442</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.12356268981128</v>
+      </c>
+      <c r="C38">
+        <v>11.3263004833897</v>
+      </c>
+      <c r="D38">
+        <v>34.05630048338971</v>
+      </c>
+      <c r="E38">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="F38">
+        <v>24.3</v>
+      </c>
+      <c r="G38">
+        <v>1.57</v>
+      </c>
+      <c r="H38">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.02</v>
+      </c>
+      <c r="K38">
+        <v>0.349</v>
+      </c>
+      <c r="L38">
+        <v>0.671</v>
+      </c>
+      <c r="M38">
+        <v>4.46391</v>
+      </c>
+      <c r="N38">
+        <v>-3.79291</v>
+      </c>
+      <c r="O38">
+        <v>-1.2895894</v>
+      </c>
+      <c r="P38">
+        <v>-2.5033206</v>
+      </c>
+      <c r="Q38">
+        <v>-2.1543206</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09501647134864359</v>
+      </c>
+      <c r="T38">
+        <v>1.123485406324781</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.05110766122076835</v>
+      </c>
+      <c r="W38">
+        <v>0.1743115226337449</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1503166506493187</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.12530668981128</v>
+      </c>
+      <c r="C39">
+        <v>10.13931114777765</v>
+      </c>
+      <c r="D39">
+        <v>33.54431114777765</v>
+      </c>
+      <c r="E39">
+        <v>1.475000000000001</v>
+      </c>
+      <c r="F39">
+        <v>24.975</v>
+      </c>
+      <c r="G39">
+        <v>1.57</v>
+      </c>
+      <c r="H39">
+        <v>44</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.02</v>
+      </c>
+      <c r="K39">
+        <v>0.349</v>
+      </c>
+      <c r="L39">
+        <v>0.671</v>
+      </c>
+      <c r="M39">
+        <v>4.5879075</v>
+      </c>
+      <c r="N39">
+        <v>-3.9169075</v>
+      </c>
+      <c r="O39">
+        <v>-1.33174855</v>
+      </c>
+      <c r="P39">
+        <v>-2.58515895</v>
+      </c>
+      <c r="Q39">
+        <v>-2.23615895</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09637705025893951</v>
+      </c>
+      <c r="T39">
+        <v>1.141318508012476</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.04972637307966649</v>
+      </c>
+      <c r="W39">
+        <v>0.1745652652652653</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1462540384696074</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.12705068981128</v>
+      </c>
+      <c r="C40">
+        <v>8.967487912724977</v>
+      </c>
+      <c r="D40">
+        <v>33.04748791272497</v>
+      </c>
+      <c r="E40">
+        <v>2.149999999999999</v>
+      </c>
+      <c r="F40">
+        <v>25.65</v>
+      </c>
+      <c r="G40">
+        <v>1.57</v>
+      </c>
+      <c r="H40">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.02</v>
+      </c>
+      <c r="K40">
+        <v>0.349</v>
+      </c>
+      <c r="L40">
+        <v>0.671</v>
+      </c>
+      <c r="M40">
+        <v>4.711905</v>
+      </c>
+      <c r="N40">
+        <v>-4.040905</v>
+      </c>
+      <c r="O40">
+        <v>-1.3739077</v>
+      </c>
+      <c r="P40">
+        <v>-2.666997299999999</v>
+      </c>
+      <c r="Q40">
+        <v>-2.317997299999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09778151881150307</v>
+      </c>
+      <c r="T40">
+        <v>1.159726871044936</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.04841778431441212</v>
+      </c>
+      <c r="W40">
+        <v>0.1748056530214425</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1424052479835651</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1287946898112801</v>
+      </c>
+      <c r="C41">
+        <v>7.810166740036745</v>
+      </c>
+      <c r="D41">
+        <v>32.56516674003674</v>
+      </c>
+      <c r="E41">
+        <v>2.824999999999999</v>
+      </c>
+      <c r="F41">
+        <v>26.325</v>
+      </c>
+      <c r="G41">
+        <v>1.57</v>
+      </c>
+      <c r="H41">
+        <v>44</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.02</v>
+      </c>
+      <c r="K41">
+        <v>0.349</v>
+      </c>
+      <c r="L41">
+        <v>0.671</v>
+      </c>
+      <c r="M41">
+        <v>4.8359025</v>
+      </c>
+      <c r="N41">
+        <v>-4.164902499999999</v>
+      </c>
+      <c r="O41">
+        <v>-1.41606685</v>
+      </c>
+      <c r="P41">
+        <v>-2.748835649999999</v>
+      </c>
+      <c r="Q41">
+        <v>-2.399835649999999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09923203551333099</v>
+      </c>
+      <c r="T41">
+        <v>1.178738786963705</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.04717630266532463</v>
+      </c>
+      <c r="W41">
+        <v>0.1750337132003799</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1387538313686019</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.13053868981128</v>
+      </c>
+      <c r="C42">
+        <v>6.666721799869315</v>
+      </c>
+      <c r="D42">
+        <v>32.09672179986931</v>
+      </c>
+      <c r="E42">
+        <v>3.5</v>
+      </c>
+      <c r="F42">
+        <v>27</v>
+      </c>
+      <c r="G42">
+        <v>1.57</v>
+      </c>
+      <c r="H42">
+        <v>44</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.02</v>
+      </c>
+      <c r="K42">
+        <v>0.349</v>
+      </c>
+      <c r="L42">
+        <v>0.671</v>
+      </c>
+      <c r="M42">
+        <v>4.9599</v>
+      </c>
+      <c r="N42">
+        <v>-4.2889</v>
+      </c>
+      <c r="O42">
+        <v>-1.458226</v>
+      </c>
+      <c r="P42">
+        <v>-2.830674</v>
+      </c>
+      <c r="Q42">
+        <v>-2.481674</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1007309027718865</v>
+      </c>
+      <c r="T42">
+        <v>1.1983844334131</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04599689509869151</v>
+      </c>
+      <c r="W42">
+        <v>0.1752503703703704</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1352849855843868</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1322826898112801</v>
+      </c>
+      <c r="C43">
+        <v>5.536562761594322</v>
+      </c>
+      <c r="D43">
+        <v>31.64156276159433</v>
+      </c>
+      <c r="E43">
+        <v>4.175000000000001</v>
+      </c>
+      <c r="F43">
+        <v>27.675</v>
+      </c>
+      <c r="G43">
+        <v>1.57</v>
+      </c>
+      <c r="H43">
+        <v>44</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.02</v>
+      </c>
+      <c r="K43">
+        <v>0.349</v>
+      </c>
+      <c r="L43">
+        <v>0.671</v>
+      </c>
+      <c r="M43">
+        <v>5.0838975</v>
+      </c>
+      <c r="N43">
+        <v>-4.4128975</v>
+      </c>
+      <c r="O43">
+        <v>-1.50038515</v>
+      </c>
+      <c r="P43">
+        <v>-2.91251235</v>
+      </c>
+      <c r="Q43">
+        <v>-2.56351235</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1022805790900541</v>
+      </c>
+      <c r="T43">
+        <v>1.218696033979424</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04487501960847953</v>
+      </c>
+      <c r="W43">
+        <v>0.1754564588979223</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1319853517896457</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.13402668981128</v>
+      </c>
+      <c r="C44">
+        <v>4.419132311947056</v>
+      </c>
+      <c r="D44">
+        <v>31.19913231194705</v>
+      </c>
+      <c r="E44">
+        <v>4.849999999999998</v>
+      </c>
+      <c r="F44">
+        <v>28.35</v>
+      </c>
+      <c r="G44">
+        <v>1.57</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.02</v>
+      </c>
+      <c r="K44">
+        <v>0.349</v>
+      </c>
+      <c r="L44">
+        <v>0.671</v>
+      </c>
+      <c r="M44">
+        <v>5.207895</v>
+      </c>
+      <c r="N44">
+        <v>-4.536894999999999</v>
+      </c>
+      <c r="O44">
+        <v>-1.5425443</v>
+      </c>
+      <c r="P44">
+        <v>-2.9943507</v>
+      </c>
+      <c r="Q44">
+        <v>-2.6453507</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1038836925226412</v>
+      </c>
+      <c r="T44">
+        <v>1.239708034565276</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.04380656676065859</v>
+      </c>
+      <c r="W44">
+        <v>0.175652733686067</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1288428434137018</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.13577068981128</v>
+      </c>
+      <c r="C45">
+        <v>3.313903878519291</v>
+      </c>
+      <c r="D45">
+        <v>30.76890387851929</v>
+      </c>
+      <c r="E45">
+        <v>5.524999999999999</v>
+      </c>
+      <c r="F45">
+        <v>29.025</v>
+      </c>
+      <c r="G45">
+        <v>1.57</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.02</v>
+      </c>
+      <c r="K45">
+        <v>0.349</v>
+      </c>
+      <c r="L45">
+        <v>0.671</v>
+      </c>
+      <c r="M45">
+        <v>5.331892499999999</v>
+      </c>
+      <c r="N45">
+        <v>-4.660892499999999</v>
+      </c>
+      <c r="O45">
+        <v>-1.58470345</v>
+      </c>
+      <c r="P45">
+        <v>-3.076189049999999</v>
+      </c>
+      <c r="Q45">
+        <v>-2.727189049999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1055430555493542</v>
+      </c>
+      <c r="T45">
+        <v>1.261457298329579</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04278780939413164</v>
+      </c>
+      <c r="W45">
+        <v>0.175839879414298</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1258464982180343</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.13751468981128</v>
+      </c>
+      <c r="C46">
+        <v>2.220379539045229</v>
+      </c>
+      <c r="D46">
+        <v>30.35037953904523</v>
+      </c>
+      <c r="E46">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="F46">
+        <v>29.7</v>
+      </c>
+      <c r="G46">
+        <v>1.57</v>
+      </c>
+      <c r="H46">
+        <v>44</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.02</v>
+      </c>
+      <c r="K46">
+        <v>0.349</v>
+      </c>
+      <c r="L46">
+        <v>0.671</v>
+      </c>
+      <c r="M46">
+        <v>5.45589</v>
+      </c>
+      <c r="N46">
+        <v>-4.78489</v>
+      </c>
+      <c r="O46">
+        <v>-1.6268626</v>
+      </c>
+      <c r="P46">
+        <v>-3.1580274</v>
+      </c>
+      <c r="Q46">
+        <v>-2.8090274</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1072616815413069</v>
+      </c>
+      <c r="T46">
+        <v>1.283983321514036</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.04181535918062865</v>
+      </c>
+      <c r="W46">
+        <v>0.1760185185185185</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1229863505312607</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1392586898112801</v>
+      </c>
+      <c r="C47">
+        <v>1.138088099027183</v>
+      </c>
+      <c r="D47">
+        <v>29.94308809902718</v>
+      </c>
+      <c r="E47">
+        <v>6.875</v>
+      </c>
+      <c r="F47">
+        <v>30.375</v>
+      </c>
+      <c r="G47">
+        <v>1.57</v>
+      </c>
+      <c r="H47">
+        <v>44</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.02</v>
+      </c>
+      <c r="K47">
+        <v>0.349</v>
+      </c>
+      <c r="L47">
+        <v>0.671</v>
+      </c>
+      <c r="M47">
+        <v>5.5798875</v>
+      </c>
+      <c r="N47">
+        <v>-4.9088875</v>
+      </c>
+      <c r="O47">
+        <v>-1.66902175</v>
+      </c>
+      <c r="P47">
+        <v>-3.23986575</v>
+      </c>
+      <c r="Q47">
+        <v>-2.89086575</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1090428030238762</v>
+      </c>
+      <c r="T47">
+        <v>1.307328472814291</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04088612897661468</v>
+      </c>
+      <c r="W47">
+        <v>0.1761892181069959</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1202533205194549</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1410026898112801</v>
+      </c>
+      <c r="C48">
+        <v>0.06658332209717344</v>
+      </c>
+      <c r="D48">
+        <v>29.54658332209717</v>
+      </c>
+      <c r="E48">
+        <v>7.550000000000001</v>
+      </c>
+      <c r="F48">
+        <v>31.05</v>
+      </c>
+      <c r="G48">
+        <v>1.57</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.02</v>
+      </c>
+      <c r="K48">
+        <v>0.349</v>
+      </c>
+      <c r="L48">
+        <v>0.671</v>
+      </c>
+      <c r="M48">
+        <v>5.703885000000001</v>
+      </c>
+      <c r="N48">
+        <v>-5.032885</v>
+      </c>
+      <c r="O48">
+        <v>-1.7111809</v>
+      </c>
+      <c r="P48">
+        <v>-3.3217041</v>
+      </c>
+      <c r="Q48">
+        <v>-2.9727041</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1108898919687628</v>
+      </c>
+      <c r="T48">
+        <v>1.331538259347889</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03999730008581871</v>
+      </c>
+      <c r="W48">
+        <v>0.1763524959742351</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1176391178994668</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1427466898112801</v>
+      </c>
+      <c r="C49">
+        <v>-0.9945577008582127</v>
+      </c>
+      <c r="D49">
+        <v>29.16044229914179</v>
+      </c>
+      <c r="E49">
+        <v>8.225000000000001</v>
+      </c>
+      <c r="F49">
+        <v>31.725</v>
+      </c>
+      <c r="G49">
+        <v>1.57</v>
+      </c>
+      <c r="H49">
+        <v>44</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.02</v>
+      </c>
+      <c r="K49">
+        <v>0.349</v>
+      </c>
+      <c r="L49">
+        <v>0.671</v>
+      </c>
+      <c r="M49">
+        <v>5.8278825</v>
+      </c>
+      <c r="N49">
+        <v>-5.1568825</v>
+      </c>
+      <c r="O49">
+        <v>-1.75334005</v>
+      </c>
+      <c r="P49">
+        <v>-3.40354245</v>
+      </c>
+      <c r="Q49">
+        <v>-3.05454245</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1128066823832677</v>
+      </c>
+      <c r="T49">
+        <v>1.356661622731812</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03914629370101405</v>
+      </c>
+      <c r="W49">
+        <v>0.1765088258471237</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.115136157944159</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.14449068981128</v>
+      </c>
+      <c r="C50">
+        <v>-2.045736056340345</v>
+      </c>
+      <c r="D50">
+        <v>28.78426394365965</v>
+      </c>
+      <c r="E50">
+        <v>8.899999999999999</v>
+      </c>
+      <c r="F50">
+        <v>32.4</v>
+      </c>
+      <c r="G50">
+        <v>1.57</v>
+      </c>
+      <c r="H50">
+        <v>44</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.02</v>
+      </c>
+      <c r="K50">
+        <v>0.349</v>
+      </c>
+      <c r="L50">
+        <v>0.671</v>
+      </c>
+      <c r="M50">
+        <v>5.95188</v>
+      </c>
+      <c r="N50">
+        <v>-5.28088</v>
+      </c>
+      <c r="O50">
+        <v>-1.7954992</v>
+      </c>
+      <c r="P50">
+        <v>-3.4853808</v>
+      </c>
+      <c r="Q50">
+        <v>-3.1363808</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1147971955060229</v>
+      </c>
+      <c r="T50">
+        <v>1.382751269322808</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03833074591557626</v>
+      </c>
+      <c r="W50">
+        <v>0.1766586419753086</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.112737487986989</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.14623468981128</v>
+      </c>
+      <c r="C51">
+        <v>-3.08733239790234</v>
+      </c>
+      <c r="D51">
+        <v>28.41766760209766</v>
+      </c>
+      <c r="E51">
+        <v>9.575000000000003</v>
+      </c>
+      <c r="F51">
+        <v>33.075</v>
+      </c>
+      <c r="G51">
+        <v>1.57</v>
+      </c>
+      <c r="H51">
+        <v>44</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.02</v>
+      </c>
+      <c r="K51">
+        <v>0.349</v>
+      </c>
+      <c r="L51">
+        <v>0.671</v>
+      </c>
+      <c r="M51">
+        <v>6.075877500000001</v>
+      </c>
+      <c r="N51">
+        <v>-5.4048775</v>
+      </c>
+      <c r="O51">
+        <v>-1.83765835</v>
+      </c>
+      <c r="P51">
+        <v>-3.56721915</v>
+      </c>
+      <c r="Q51">
+        <v>-3.21821915</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1168657679669253</v>
+      </c>
+      <c r="T51">
+        <v>1.409864039309529</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03754848579485021</v>
+      </c>
+      <c r="W51">
+        <v>0.176802343159486</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.11043672292603</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.14797868981128</v>
+      </c>
+      <c r="C52">
+        <v>-4.119708230955727</v>
+      </c>
+      <c r="D52">
+        <v>28.06029176904427</v>
+      </c>
+      <c r="E52">
+        <v>10.25</v>
+      </c>
+      <c r="F52">
+        <v>33.75</v>
+      </c>
+      <c r="G52">
+        <v>1.57</v>
+      </c>
+      <c r="H52">
+        <v>44</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.02</v>
+      </c>
+      <c r="K52">
+        <v>0.349</v>
+      </c>
+      <c r="L52">
+        <v>0.671</v>
+      </c>
+      <c r="M52">
+        <v>6.199875</v>
+      </c>
+      <c r="N52">
+        <v>-5.528875</v>
+      </c>
+      <c r="O52">
+        <v>-1.8798175</v>
+      </c>
+      <c r="P52">
+        <v>-3.6490575</v>
+      </c>
+      <c r="Q52">
+        <v>-3.3000575</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1190170833262638</v>
+      </c>
+      <c r="T52">
+        <v>1.43806132009572</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03679751607895321</v>
+      </c>
+      <c r="W52">
+        <v>0.1769402962962963</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1082279884675095</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.14972268981128</v>
+      </c>
+      <c r="C53">
+        <v>-5.143207101836079</v>
+      </c>
+      <c r="D53">
+        <v>27.71179289816392</v>
+      </c>
+      <c r="E53">
+        <v>10.925</v>
+      </c>
+      <c r="F53">
+        <v>34.425</v>
+      </c>
+      <c r="G53">
+        <v>1.57</v>
+      </c>
+      <c r="H53">
+        <v>44</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.02</v>
+      </c>
+      <c r="K53">
+        <v>0.349</v>
+      </c>
+      <c r="L53">
+        <v>0.671</v>
+      </c>
+      <c r="M53">
+        <v>6.323872499999999</v>
+      </c>
+      <c r="N53">
+        <v>-5.652872499999999</v>
+      </c>
+      <c r="O53">
+        <v>-1.92197665</v>
+      </c>
+      <c r="P53">
+        <v>-3.73089585</v>
+      </c>
+      <c r="Q53">
+        <v>-3.381895849999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1212562074757794</v>
+      </c>
+      <c r="T53">
+        <v>1.467409510301755</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03607599615583648</v>
+      </c>
+      <c r="W53">
+        <v>0.1770728395061728</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1061058710465779</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.15146668981128</v>
+      </c>
+      <c r="C54">
+        <v>-6.158155699348992</v>
+      </c>
+      <c r="D54">
+        <v>27.37184430065101</v>
+      </c>
+      <c r="E54">
+        <v>11.6</v>
+      </c>
+      <c r="F54">
+        <v>35.1</v>
+      </c>
+      <c r="G54">
+        <v>1.57</v>
+      </c>
+      <c r="H54">
+        <v>44</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.02</v>
+      </c>
+      <c r="K54">
+        <v>0.349</v>
+      </c>
+      <c r="L54">
+        <v>0.671</v>
+      </c>
+      <c r="M54">
+        <v>6.44787</v>
+      </c>
+      <c r="N54">
+        <v>-5.77687</v>
+      </c>
+      <c r="O54">
+        <v>-1.9641358</v>
+      </c>
+      <c r="P54">
+        <v>-3.8127342</v>
+      </c>
+      <c r="Q54">
+        <v>-3.463734199999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1235886284648581</v>
+      </c>
+      <c r="T54">
+        <v>1.497980541766375</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03538222699899347</v>
+      </c>
+      <c r="W54">
+        <v>0.1772002849002849</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1040653735264514</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1532106898112801</v>
+      </c>
+      <c r="C55">
+        <v>-7.16486487622068</v>
+      </c>
+      <c r="D55">
+        <v>27.04013512377932</v>
+      </c>
+      <c r="E55">
+        <v>12.275</v>
+      </c>
+      <c r="F55">
+        <v>35.775</v>
+      </c>
+      <c r="G55">
+        <v>1.57</v>
+      </c>
+      <c r="H55">
+        <v>44</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.02</v>
+      </c>
+      <c r="K55">
+        <v>0.349</v>
+      </c>
+      <c r="L55">
+        <v>0.671</v>
+      </c>
+      <c r="M55">
+        <v>6.5718675</v>
+      </c>
+      <c r="N55">
+        <v>-5.900867499999999</v>
+      </c>
+      <c r="O55">
+        <v>-2.00629495</v>
+      </c>
+      <c r="P55">
+        <v>-3.894572549999999</v>
+      </c>
+      <c r="Q55">
+        <v>-3.545572549999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1260203014109189</v>
+      </c>
+      <c r="T55">
+        <v>1.529852468186937</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03471463781033322</v>
+      </c>
+      <c r="W55">
+        <v>0.1773229210342418</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1021018759127448</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.15495468981128</v>
+      </c>
+      <c r="C56">
+        <v>-8.163630597166382</v>
+      </c>
+      <c r="D56">
+        <v>26.71636940283362</v>
+      </c>
+      <c r="E56">
+        <v>12.95</v>
+      </c>
+      <c r="F56">
+        <v>36.45</v>
+      </c>
+      <c r="G56">
+        <v>1.57</v>
+      </c>
+      <c r="H56">
+        <v>44</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.02</v>
+      </c>
+      <c r="K56">
+        <v>0.349</v>
+      </c>
+      <c r="L56">
+        <v>0.671</v>
+      </c>
+      <c r="M56">
+        <v>6.695865</v>
+      </c>
+      <c r="N56">
+        <v>-6.024865</v>
+      </c>
+      <c r="O56">
+        <v>-2.0484541</v>
+      </c>
+      <c r="P56">
+        <v>-3.9764109</v>
+      </c>
+      <c r="Q56">
+        <v>-3.6274109</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.128557699267678</v>
+      </c>
+      <c r="T56">
+        <v>1.563110130538826</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03407177414717889</v>
+      </c>
+      <c r="W56">
+        <v>0.1774410150891632</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1002111004328792</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1566986898112801</v>
+      </c>
+      <c r="C57">
+        <v>-9.154734819654362</v>
+      </c>
+      <c r="D57">
+        <v>26.40026518034564</v>
+      </c>
+      <c r="E57">
+        <v>13.625</v>
+      </c>
+      <c r="F57">
+        <v>37.125</v>
+      </c>
+      <c r="G57">
+        <v>1.57</v>
+      </c>
+      <c r="H57">
+        <v>44</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.02</v>
+      </c>
+      <c r="K57">
+        <v>0.349</v>
+      </c>
+      <c r="L57">
+        <v>0.671</v>
+      </c>
+      <c r="M57">
+        <v>6.8198625</v>
+      </c>
+      <c r="N57">
+        <v>-6.1488625</v>
+      </c>
+      <c r="O57">
+        <v>-2.09061325</v>
+      </c>
+      <c r="P57">
+        <v>-4.058249249999999</v>
+      </c>
+      <c r="Q57">
+        <v>-3.709249249999999</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1312078703625153</v>
+      </c>
+      <c r="T57">
+        <v>1.597845911217467</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03345228734450292</v>
+      </c>
+      <c r="W57">
+        <v>0.1775548148148148</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.0983890804250086</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.15844268981128</v>
+      </c>
+      <c r="C58">
+        <v>-10.1384463128746</v>
+      </c>
+      <c r="D58">
+        <v>26.09155368712541</v>
+      </c>
+      <c r="E58">
+        <v>14.3</v>
+      </c>
+      <c r="F58">
+        <v>37.8</v>
+      </c>
+      <c r="G58">
+        <v>1.57</v>
+      </c>
+      <c r="H58">
+        <v>44</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.02</v>
+      </c>
+      <c r="K58">
+        <v>0.349</v>
+      </c>
+      <c r="L58">
+        <v>0.671</v>
+      </c>
+      <c r="M58">
+        <v>6.943860000000001</v>
+      </c>
+      <c r="N58">
+        <v>-6.272860000000001</v>
+      </c>
+      <c r="O58">
+        <v>-2.1327724</v>
+      </c>
+      <c r="P58">
+        <v>-4.1400876</v>
+      </c>
+      <c r="Q58">
+        <v>-3.7910876</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1339785037798452</v>
+      </c>
+      <c r="T58">
+        <v>1.634160591017864</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03285492507049393</v>
+      </c>
+      <c r="W58">
+        <v>0.1776645502645503</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.09663213256027625</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.16018668981128</v>
+      </c>
+      <c r="C59">
+        <v>-11.11502141991193</v>
+      </c>
+      <c r="D59">
+        <v>25.78997858008807</v>
+      </c>
+      <c r="E59">
+        <v>14.975</v>
+      </c>
+      <c r="F59">
+        <v>38.475</v>
+      </c>
+      <c r="G59">
+        <v>1.57</v>
+      </c>
+      <c r="H59">
+        <v>44</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.02</v>
+      </c>
+      <c r="K59">
+        <v>0.349</v>
+      </c>
+      <c r="L59">
+        <v>0.671</v>
+      </c>
+      <c r="M59">
+        <v>7.067857500000001</v>
+      </c>
+      <c r="N59">
+        <v>-6.3968575</v>
+      </c>
+      <c r="O59">
+        <v>-2.17493155</v>
+      </c>
+      <c r="P59">
+        <v>-4.22192595</v>
+      </c>
+      <c r="Q59">
+        <v>-3.87292595</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1368780038677486</v>
+      </c>
+      <c r="T59">
+        <v>1.672164325692698</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03227852287627474</v>
+      </c>
+      <c r="W59">
+        <v>0.1777704353476283</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.09493683198904335</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.16193068981128</v>
+      </c>
+      <c r="C60">
+        <v>-12.08470476766647</v>
+      </c>
+      <c r="D60">
+        <v>25.49529523233353</v>
+      </c>
+      <c r="E60">
+        <v>15.65</v>
+      </c>
+      <c r="F60">
+        <v>39.15</v>
+      </c>
+      <c r="G60">
+        <v>1.57</v>
+      </c>
+      <c r="H60">
+        <v>44</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.02</v>
+      </c>
+      <c r="K60">
+        <v>0.349</v>
+      </c>
+      <c r="L60">
+        <v>0.671</v>
+      </c>
+      <c r="M60">
+        <v>7.191854999999999</v>
+      </c>
+      <c r="N60">
+        <v>-6.520854999999999</v>
+      </c>
+      <c r="O60">
+        <v>-2.2170907</v>
+      </c>
+      <c r="P60">
+        <v>-4.303764299999999</v>
+      </c>
+      <c r="Q60">
+        <v>-3.954764299999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1399155753884093</v>
+      </c>
+      <c r="T60">
+        <v>1.711977762018714</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03172199661978725</v>
+      </c>
+      <c r="W60">
+        <v>0.1778726692209451</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.09329999005819778</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.16367468981128</v>
+      </c>
+      <c r="C61">
+        <v>-13.04772992865333</v>
+      </c>
+      <c r="D61">
+        <v>25.20727007134667</v>
+      </c>
+      <c r="E61">
+        <v>16.325</v>
+      </c>
+      <c r="F61">
+        <v>39.825</v>
+      </c>
+      <c r="G61">
+        <v>1.57</v>
+      </c>
+      <c r="H61">
+        <v>44</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.02</v>
+      </c>
+      <c r="K61">
+        <v>0.349</v>
+      </c>
+      <c r="L61">
+        <v>0.671</v>
+      </c>
+      <c r="M61">
+        <v>7.315852499999999</v>
+      </c>
+      <c r="N61">
+        <v>-6.644852499999999</v>
+      </c>
+      <c r="O61">
+        <v>-2.25924985</v>
+      </c>
+      <c r="P61">
+        <v>-4.385602649999999</v>
+      </c>
+      <c r="Q61">
+        <v>-4.036602649999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.14310132112959</v>
+      </c>
+      <c r="T61">
+        <v>1.753733317189902</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03118433566012984</v>
+      </c>
+      <c r="W61">
+        <v>0.1779714375392342</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.09171863429449956</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1654186898112801</v>
+      </c>
+      <c r="C62">
+        <v>-14.00432003844461</v>
+      </c>
+      <c r="D62">
+        <v>24.92567996155539</v>
+      </c>
+      <c r="E62">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>40.5</v>
+      </c>
+      <c r="G62">
+        <v>1.57</v>
+      </c>
+      <c r="H62">
+        <v>44</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.02</v>
+      </c>
+      <c r="K62">
+        <v>0.349</v>
+      </c>
+      <c r="L62">
+        <v>0.671</v>
+      </c>
+      <c r="M62">
+        <v>7.43985</v>
+      </c>
+      <c r="N62">
+        <v>-6.76885</v>
+      </c>
+      <c r="O62">
+        <v>-2.301409</v>
+      </c>
+      <c r="P62">
+        <v>-4.467440999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-4.118440999999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1464463541578297</v>
+      </c>
+      <c r="T62">
+        <v>1.79757665011965</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03066459673246101</v>
+      </c>
+      <c r="W62">
+        <v>0.1780669135802469</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.09018999038959119</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.16716268981128</v>
+      </c>
+      <c r="C63">
+        <v>-14.95468837218401</v>
+      </c>
+      <c r="D63">
+        <v>24.65031162781598</v>
+      </c>
+      <c r="E63">
+        <v>17.675</v>
+      </c>
+      <c r="F63">
+        <v>41.175</v>
+      </c>
+      <c r="G63">
+        <v>1.57</v>
+      </c>
+      <c r="H63">
+        <v>44</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.02</v>
+      </c>
+      <c r="K63">
+        <v>0.349</v>
+      </c>
+      <c r="L63">
+        <v>0.671</v>
+      </c>
+      <c r="M63">
+        <v>7.5638475</v>
+      </c>
+      <c r="N63">
+        <v>-6.892847499999999</v>
+      </c>
+      <c r="O63">
+        <v>-2.34356815</v>
+      </c>
+      <c r="P63">
+        <v>-4.549279349999999</v>
+      </c>
+      <c r="Q63">
+        <v>-4.200279349999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1499629273413638</v>
+      </c>
+      <c r="T63">
+        <v>1.843668359097077</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.03016189842537148</v>
+      </c>
+      <c r="W63">
+        <v>0.1781592592592592</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.08871146595697499</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.16890668981128</v>
+      </c>
+      <c r="C64">
+        <v>-15.89903888330446</v>
+      </c>
+      <c r="D64">
+        <v>24.38096111669554</v>
+      </c>
+      <c r="E64">
+        <v>18.35</v>
+      </c>
+      <c r="F64">
+        <v>41.85</v>
+      </c>
+      <c r="G64">
+        <v>1.57</v>
+      </c>
+      <c r="H64">
+        <v>44</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.02</v>
+      </c>
+      <c r="K64">
+        <v>0.349</v>
+      </c>
+      <c r="L64">
+        <v>0.671</v>
+      </c>
+      <c r="M64">
+        <v>7.687845</v>
+      </c>
+      <c r="N64">
+        <v>-7.016845</v>
+      </c>
+      <c r="O64">
+        <v>-2.3857273</v>
+      </c>
+      <c r="P64">
+        <v>-4.6311177</v>
+      </c>
+      <c r="Q64">
+        <v>-4.2821177</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1536645833240313</v>
+      </c>
+      <c r="T64">
+        <v>1.892185947494369</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.0296754161927042</v>
+      </c>
+      <c r="W64">
+        <v>0.1782486260454002</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.08728063586089474</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1706506898112801</v>
+      </c>
+      <c r="C65">
+        <v>-16.8375667073085</v>
+      </c>
+      <c r="D65">
+        <v>24.1174332926915</v>
+      </c>
+      <c r="E65">
+        <v>19.025</v>
+      </c>
+      <c r="F65">
+        <v>42.525</v>
+      </c>
+      <c r="G65">
+        <v>1.57</v>
+      </c>
+      <c r="H65">
+        <v>44</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.02</v>
+      </c>
+      <c r="K65">
+        <v>0.349</v>
+      </c>
+      <c r="L65">
+        <v>0.671</v>
+      </c>
+      <c r="M65">
+        <v>7.8118425</v>
+      </c>
+      <c r="N65">
+        <v>-7.1408425</v>
+      </c>
+      <c r="O65">
+        <v>-2.42788645</v>
+      </c>
+      <c r="P65">
+        <v>-4.71295605</v>
+      </c>
+      <c r="Q65">
+        <v>-4.36395605</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1575663288192754</v>
+      </c>
+      <c r="T65">
+        <v>1.94332610823746</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02920437784043906</v>
+      </c>
+      <c r="W65">
+        <v>0.1783351557907114</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.08589522894246782</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.17239468981128</v>
+      </c>
+      <c r="C66">
+        <v>-17.77045863322665</v>
+      </c>
+      <c r="D66">
+        <v>23.85954136677335</v>
+      </c>
+      <c r="E66">
+        <v>19.7</v>
+      </c>
+      <c r="F66">
+        <v>43.2</v>
+      </c>
+      <c r="G66">
+        <v>1.57</v>
+      </c>
+      <c r="H66">
+        <v>44</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.02</v>
+      </c>
+      <c r="K66">
+        <v>0.349</v>
+      </c>
+      <c r="L66">
+        <v>0.671</v>
+      </c>
+      <c r="M66">
+        <v>7.935840000000001</v>
+      </c>
+      <c r="N66">
+        <v>-7.26484</v>
+      </c>
+      <c r="O66">
+        <v>-2.4700456</v>
+      </c>
+      <c r="P66">
+        <v>-4.794794400000001</v>
+      </c>
+      <c r="Q66">
+        <v>-4.4457944</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1616848379531442</v>
+      </c>
+      <c r="T66">
+        <v>1.997307389021834</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.02874805943668219</v>
+      </c>
+      <c r="W66">
+        <v>0.1784189814814815</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.08455311599024173</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1741386898112801</v>
+      </c>
+      <c r="C67">
+        <v>-18.69789354514746</v>
+      </c>
+      <c r="D67">
+        <v>23.60710645485254</v>
+      </c>
+      <c r="E67">
+        <v>20.375</v>
+      </c>
+      <c r="F67">
+        <v>43.875</v>
+      </c>
+      <c r="G67">
+        <v>1.57</v>
+      </c>
+      <c r="H67">
+        <v>44</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.02</v>
+      </c>
+      <c r="K67">
+        <v>0.349</v>
+      </c>
+      <c r="L67">
+        <v>0.671</v>
+      </c>
+      <c r="M67">
+        <v>8.0598375</v>
+      </c>
+      <c r="N67">
+        <v>-7.3888375</v>
+      </c>
+      <c r="O67">
+        <v>-2.51220475</v>
+      </c>
+      <c r="P67">
+        <v>-4.87663275</v>
+      </c>
+      <c r="Q67">
+        <v>-4.52763275</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1660386904660912</v>
+      </c>
+      <c r="T67">
+        <v>2.054373314422458</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02830578159919478</v>
+      </c>
+      <c r="W67">
+        <v>0.1785002279202279</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.08325229882116114</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1758826898112801</v>
+      </c>
+      <c r="C68">
+        <v>-19.62004283601259</v>
+      </c>
+      <c r="D68">
+        <v>23.35995716398741</v>
+      </c>
+      <c r="E68">
+        <v>21.05</v>
+      </c>
+      <c r="F68">
+        <v>44.55</v>
+      </c>
+      <c r="G68">
+        <v>1.57</v>
+      </c>
+      <c r="H68">
+        <v>44</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.02</v>
+      </c>
+      <c r="K68">
+        <v>0.349</v>
+      </c>
+      <c r="L68">
+        <v>0.671</v>
+      </c>
+      <c r="M68">
+        <v>8.183835</v>
+      </c>
+      <c r="N68">
+        <v>-7.512835</v>
+      </c>
+      <c r="O68">
+        <v>-2.5543639</v>
+      </c>
+      <c r="P68">
+        <v>-4.9584711</v>
+      </c>
+      <c r="Q68">
+        <v>-4.609471099999999</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.170648651950388</v>
+      </c>
+      <c r="T68">
+        <v>2.114796058964295</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02787690612041909</v>
+      </c>
+      <c r="W68">
+        <v>0.178579012345679</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.08199090035417389</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.17762668981128</v>
+      </c>
+      <c r="C69">
+        <v>-20.53707079568832</v>
+      </c>
+      <c r="D69">
+        <v>23.11792920431168</v>
+      </c>
+      <c r="E69">
+        <v>21.725</v>
+      </c>
+      <c r="F69">
+        <v>45.225</v>
+      </c>
+      <c r="G69">
+        <v>1.57</v>
+      </c>
+      <c r="H69">
+        <v>44</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.02</v>
+      </c>
+      <c r="K69">
+        <v>0.349</v>
+      </c>
+      <c r="L69">
+        <v>0.671</v>
+      </c>
+      <c r="M69">
+        <v>8.3078325</v>
+      </c>
+      <c r="N69">
+        <v>-7.6368325</v>
+      </c>
+      <c r="O69">
+        <v>-2.59652305</v>
+      </c>
+      <c r="P69">
+        <v>-5.04030945</v>
+      </c>
+      <c r="Q69">
+        <v>-4.691309449999999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1755380050397936</v>
+      </c>
+      <c r="T69">
+        <v>2.178880788023819</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.0274608328947412</v>
+      </c>
+      <c r="W69">
+        <v>0.178655444997236</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.08076715557276826</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.17937068981128</v>
+      </c>
+      <c r="C70">
+        <v>-21.44913497516015</v>
+      </c>
+      <c r="D70">
+        <v>22.88086502483985</v>
+      </c>
+      <c r="E70">
+        <v>22.40000000000001</v>
+      </c>
+      <c r="F70">
+        <v>45.90000000000001</v>
+      </c>
+      <c r="G70">
+        <v>1.57</v>
+      </c>
+      <c r="H70">
+        <v>44</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.02</v>
+      </c>
+      <c r="K70">
+        <v>0.349</v>
+      </c>
+      <c r="L70">
+        <v>0.671</v>
+      </c>
+      <c r="M70">
+        <v>8.431830000000001</v>
+      </c>
+      <c r="N70">
+        <v>-7.760830000000001</v>
+      </c>
+      <c r="O70">
+        <v>-2.638682200000001</v>
+      </c>
+      <c r="P70">
+        <v>-5.1221478</v>
+      </c>
+      <c r="Q70">
+        <v>-4.7731478</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1807329426972872</v>
+      </c>
+      <c r="T70">
+        <v>2.246970812649563</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02705699711687735</v>
+      </c>
+      <c r="W70">
+        <v>0.1787296296296296</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.0795794032849334</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1811146898112801</v>
+      </c>
+      <c r="C71">
+        <v>-22.35638652854684</v>
+      </c>
+      <c r="D71">
+        <v>22.64861347145316</v>
+      </c>
+      <c r="E71">
+        <v>23.075</v>
+      </c>
+      <c r="F71">
+        <v>46.575</v>
+      </c>
+      <c r="G71">
+        <v>1.57</v>
+      </c>
+      <c r="H71">
+        <v>44</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.02</v>
+      </c>
+      <c r="K71">
+        <v>0.349</v>
+      </c>
+      <c r="L71">
+        <v>0.671</v>
+      </c>
+      <c r="M71">
+        <v>8.555827500000001</v>
+      </c>
+      <c r="N71">
+        <v>-7.884827500000001</v>
+      </c>
+      <c r="O71">
+        <v>-2.680841350000001</v>
+      </c>
+      <c r="P71">
+        <v>-5.20398615</v>
+      </c>
+      <c r="Q71">
+        <v>-4.85498615</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1862630376230062</v>
+      </c>
+      <c r="T71">
+        <v>2.319453742089872</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02666486672387914</v>
+      </c>
+      <c r="W71">
+        <v>0.1788016639828234</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.07842607859964457</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1828586898112801</v>
+      </c>
+      <c r="C72">
+        <v>-23.25897053449413</v>
+      </c>
+      <c r="D72">
+        <v>22.42102946550588</v>
+      </c>
+      <c r="E72">
+        <v>23.75000000000001</v>
+      </c>
+      <c r="F72">
+        <v>47.25000000000001</v>
+      </c>
+      <c r="G72">
+        <v>1.57</v>
+      </c>
+      <c r="H72">
+        <v>44</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.02</v>
+      </c>
+      <c r="K72">
+        <v>0.349</v>
+      </c>
+      <c r="L72">
+        <v>0.671</v>
+      </c>
+      <c r="M72">
+        <v>8.679825000000001</v>
+      </c>
+      <c r="N72">
+        <v>-8.008825000000002</v>
+      </c>
+      <c r="O72">
+        <v>-2.723000500000001</v>
+      </c>
+      <c r="P72">
+        <v>-5.2858245</v>
+      </c>
+      <c r="Q72">
+        <v>-4.9368245</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.192161805543773</v>
+      </c>
+      <c r="T72">
+        <v>2.396768866826201</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02628394005639515</v>
+      </c>
+      <c r="W72">
+        <v>0.1788716402116402</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.07730570604822096</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1846026898112801</v>
+      </c>
+      <c r="C73">
+        <v>-24.15702629838421</v>
+      </c>
+      <c r="D73">
+        <v>22.19797370161579</v>
+      </c>
+      <c r="E73">
+        <v>24.425</v>
+      </c>
+      <c r="F73">
+        <v>47.925</v>
+      </c>
+      <c r="G73">
+        <v>1.57</v>
+      </c>
+      <c r="H73">
+        <v>44</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.02</v>
+      </c>
+      <c r="K73">
+        <v>0.349</v>
+      </c>
+      <c r="L73">
+        <v>0.671</v>
+      </c>
+      <c r="M73">
+        <v>8.803822499999999</v>
+      </c>
+      <c r="N73">
+        <v>-8.1328225</v>
+      </c>
+      <c r="O73">
+        <v>-2.76515965</v>
+      </c>
+      <c r="P73">
+        <v>-5.367662849999999</v>
+      </c>
+      <c r="Q73">
+        <v>-5.018662849999999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1984673850452824</v>
+      </c>
+      <c r="T73">
+        <v>2.479416069130552</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02591374371757268</v>
+      </c>
+      <c r="W73">
+        <v>0.1789396452790819</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.07621689328697845</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.18634668981128</v>
+      </c>
+      <c r="C74">
+        <v>-25.05068763668364</v>
+      </c>
+      <c r="D74">
+        <v>21.97931236331636</v>
+      </c>
+      <c r="E74">
+        <v>25.1</v>
+      </c>
+      <c r="F74">
+        <v>48.6</v>
+      </c>
+      <c r="G74">
+        <v>1.57</v>
+      </c>
+      <c r="H74">
+        <v>44</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.02</v>
+      </c>
+      <c r="K74">
+        <v>0.349</v>
+      </c>
+      <c r="L74">
+        <v>0.671</v>
+      </c>
+      <c r="M74">
+        <v>8.927820000000001</v>
+      </c>
+      <c r="N74">
+        <v>-8.256820000000001</v>
+      </c>
+      <c r="O74">
+        <v>-2.8073188</v>
+      </c>
+      <c r="P74">
+        <v>-5.4495012</v>
+      </c>
+      <c r="Q74">
+        <v>-5.1005012</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2052233630826139</v>
+      </c>
+      <c r="T74">
+        <v>2.567966643028071</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02555383061038417</v>
+      </c>
+      <c r="W74">
+        <v>0.1790057613168724</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.07515832532465927</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1880906898112801</v>
+      </c>
+      <c r="C75">
+        <v>-25.94008314464931</v>
+      </c>
+      <c r="D75">
+        <v>21.76491685535068</v>
+      </c>
+      <c r="E75">
+        <v>25.775</v>
+      </c>
+      <c r="F75">
+        <v>49.275</v>
+      </c>
+      <c r="G75">
+        <v>1.57</v>
+      </c>
+      <c r="H75">
+        <v>44</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.02</v>
+      </c>
+      <c r="K75">
+        <v>0.349</v>
+      </c>
+      <c r="L75">
+        <v>0.671</v>
+      </c>
+      <c r="M75">
+        <v>9.0518175</v>
+      </c>
+      <c r="N75">
+        <v>-8.380817500000001</v>
+      </c>
+      <c r="O75">
+        <v>-2.849477950000001</v>
+      </c>
+      <c r="P75">
+        <v>-5.53133955</v>
+      </c>
+      <c r="Q75">
+        <v>-5.18233955</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2124797839375255</v>
+      </c>
+      <c r="T75">
+        <v>2.663076518695778</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02520377813626932</v>
+      </c>
+      <c r="W75">
+        <v>0.1790700659563673</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.07412875922432149</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.18983468981128</v>
+      </c>
+      <c r="C76">
+        <v>-26.82533644851802</v>
+      </c>
+      <c r="D76">
+        <v>21.55466355148199</v>
+      </c>
+      <c r="E76">
+        <v>26.45</v>
+      </c>
+      <c r="F76">
+        <v>49.95</v>
+      </c>
+      <c r="G76">
+        <v>1.57</v>
+      </c>
+      <c r="H76">
+        <v>44</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.02</v>
+      </c>
+      <c r="K76">
+        <v>0.349</v>
+      </c>
+      <c r="L76">
+        <v>0.671</v>
+      </c>
+      <c r="M76">
+        <v>9.175815</v>
+      </c>
+      <c r="N76">
+        <v>-8.504815000000001</v>
+      </c>
+      <c r="O76">
+        <v>-2.891637100000001</v>
+      </c>
+      <c r="P76">
+        <v>-5.6131779</v>
+      </c>
+      <c r="Q76">
+        <v>-5.2641779</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2202943910120458</v>
+      </c>
+      <c r="T76">
+        <v>2.765502538645616</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02486318653983325</v>
+      </c>
+      <c r="W76">
+        <v>0.1791326326326326</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.07312701923480358</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.19157868981128</v>
+      </c>
+      <c r="C77">
+        <v>-27.70656644321846</v>
+      </c>
+      <c r="D77">
+        <v>21.34843355678154</v>
+      </c>
+      <c r="E77">
+        <v>27.125</v>
+      </c>
+      <c r="F77">
+        <v>50.625</v>
+      </c>
+      <c r="G77">
+        <v>1.57</v>
+      </c>
+      <c r="H77">
+        <v>44</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.02</v>
+      </c>
+      <c r="K77">
+        <v>0.349</v>
+      </c>
+      <c r="L77">
+        <v>0.671</v>
+      </c>
+      <c r="M77">
+        <v>9.2998125</v>
+      </c>
+      <c r="N77">
+        <v>-8.6288125</v>
+      </c>
+      <c r="O77">
+        <v>-2.93379625</v>
+      </c>
+      <c r="P77">
+        <v>-5.69501625</v>
+      </c>
+      <c r="Q77">
+        <v>-5.34601625</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2287341666525276</v>
+      </c>
+      <c r="T77">
+        <v>2.87612264019144</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.0245316773859688</v>
+      </c>
+      <c r="W77">
+        <v>0.1791935308641975</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.07215199231167291</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1933226898112801</v>
+      </c>
+      <c r="C78">
+        <v>-28.58388751656658</v>
+      </c>
+      <c r="D78">
+        <v>21.14611248343341</v>
+      </c>
+      <c r="E78">
+        <v>27.8</v>
+      </c>
+      <c r="F78">
+        <v>51.3</v>
+      </c>
+      <c r="G78">
+        <v>1.57</v>
+      </c>
+      <c r="H78">
+        <v>44</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.02</v>
+      </c>
+      <c r="K78">
+        <v>0.349</v>
+      </c>
+      <c r="L78">
+        <v>0.671</v>
+      </c>
+      <c r="M78">
+        <v>9.42381</v>
+      </c>
+      <c r="N78">
+        <v>-8.75281</v>
+      </c>
+      <c r="O78">
+        <v>-2.9759554</v>
+      </c>
+      <c r="P78">
+        <v>-5.7768546</v>
+      </c>
+      <c r="Q78">
+        <v>-5.4278546</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2378772569297163</v>
+      </c>
+      <c r="T78">
+        <v>2.995961083532751</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02420889215720606</v>
+      </c>
+      <c r="W78">
+        <v>0.1792528265107212</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.07120262399178245</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.19506668981128</v>
+      </c>
+      <c r="C79">
+        <v>-29.45740976083208</v>
+      </c>
+      <c r="D79">
+        <v>20.94759023916792</v>
+      </c>
+      <c r="E79">
+        <v>28.475</v>
+      </c>
+      <c r="F79">
+        <v>51.975</v>
+      </c>
+      <c r="G79">
+        <v>1.57</v>
+      </c>
+      <c r="H79">
+        <v>44</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.02</v>
+      </c>
+      <c r="K79">
+        <v>0.349</v>
+      </c>
+      <c r="L79">
+        <v>0.671</v>
+      </c>
+      <c r="M79">
+        <v>9.547807500000001</v>
+      </c>
+      <c r="N79">
+        <v>-8.876807500000002</v>
+      </c>
+      <c r="O79">
+        <v>-3.018114550000001</v>
+      </c>
+      <c r="P79">
+        <v>-5.858692950000001</v>
+      </c>
+      <c r="Q79">
+        <v>-5.509692950000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2478153985353561</v>
+      </c>
+      <c r="T79">
+        <v>3.126220261077653</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02389449096035923</v>
+      </c>
+      <c r="W79">
+        <v>0.179310582010582</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.07027791458929178</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.19681068981128</v>
+      </c>
+      <c r="C80">
+        <v>-30.32723917249856</v>
+      </c>
+      <c r="D80">
+        <v>20.75276082750144</v>
+      </c>
+      <c r="E80">
+        <v>29.15</v>
+      </c>
+      <c r="F80">
+        <v>52.65</v>
+      </c>
+      <c r="G80">
+        <v>1.57</v>
+      </c>
+      <c r="H80">
+        <v>44</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.02</v>
+      </c>
+      <c r="K80">
+        <v>0.349</v>
+      </c>
+      <c r="L80">
+        <v>0.671</v>
+      </c>
+      <c r="M80">
+        <v>9.671804999999999</v>
+      </c>
+      <c r="N80">
+        <v>-9.000805</v>
+      </c>
+      <c r="O80">
+        <v>-3.0602737</v>
+      </c>
+      <c r="P80">
+        <v>-5.9405313</v>
+      </c>
+      <c r="Q80">
+        <v>-5.5915313</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2586570075596905</v>
+      </c>
+      <c r="T80">
+        <v>3.268321182035728</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02358815133266231</v>
+      </c>
+      <c r="W80">
+        <v>0.1793668566001899</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.06937691568430082</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.19855468981128</v>
+      </c>
+      <c r="C81">
+        <v>-31.19347784097887</v>
+      </c>
+      <c r="D81">
+        <v>20.56152215902113</v>
+      </c>
+      <c r="E81">
+        <v>29.825</v>
+      </c>
+      <c r="F81">
+        <v>53.325</v>
+      </c>
+      <c r="G81">
+        <v>1.57</v>
+      </c>
+      <c r="H81">
+        <v>44</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.02</v>
+      </c>
+      <c r="K81">
+        <v>0.349</v>
+      </c>
+      <c r="L81">
+        <v>0.671</v>
+      </c>
+      <c r="M81">
+        <v>9.795802500000001</v>
+      </c>
+      <c r="N81">
+        <v>-9.124802500000001</v>
+      </c>
+      <c r="O81">
+        <v>-3.10243285</v>
+      </c>
+      <c r="P81">
+        <v>-6.022369650000001</v>
+      </c>
+      <c r="Q81">
+        <v>-5.673369650000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2705311507768186</v>
+      </c>
+      <c r="T81">
+        <v>3.423955524037429</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02328956713857798</v>
+      </c>
+      <c r="W81">
+        <v>0.1794217065166432</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.06849872687817049</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.20029868981128</v>
+      </c>
+      <c r="C82">
+        <v>-32.05622412699144</v>
+      </c>
+      <c r="D82">
+        <v>20.37377587300857</v>
+      </c>
+      <c r="E82">
+        <v>30.5</v>
+      </c>
+      <c r="F82">
+        <v>54</v>
+      </c>
+      <c r="G82">
+        <v>1.57</v>
+      </c>
+      <c r="H82">
+        <v>44</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.02</v>
+      </c>
+      <c r="K82">
+        <v>0.349</v>
+      </c>
+      <c r="L82">
+        <v>0.671</v>
+      </c>
+      <c r="M82">
+        <v>9.9198</v>
+      </c>
+      <c r="N82">
+        <v>-9.248800000000001</v>
+      </c>
+      <c r="O82">
+        <v>-3.144592000000001</v>
+      </c>
+      <c r="P82">
+        <v>-6.104208</v>
+      </c>
+      <c r="Q82">
+        <v>-5.755208</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2835927083156595</v>
+      </c>
+      <c r="T82">
+        <v>3.595153300239302</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02299844754934575</v>
+      </c>
+      <c r="W82">
+        <v>0.1794751851851852</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.06764249279219336</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.20204268981128</v>
+      </c>
+      <c r="C83">
+        <v>-32.91557283125263</v>
+      </c>
+      <c r="D83">
+        <v>20.18942716874738</v>
+      </c>
+      <c r="E83">
+        <v>31.175</v>
+      </c>
+      <c r="F83">
+        <v>54.675</v>
+      </c>
+      <c r="G83">
+        <v>1.57</v>
+      </c>
+      <c r="H83">
+        <v>44</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.02</v>
+      </c>
+      <c r="K83">
+        <v>0.349</v>
+      </c>
+      <c r="L83">
+        <v>0.671</v>
+      </c>
+      <c r="M83">
+        <v>10.0437975</v>
+      </c>
+      <c r="N83">
+        <v>-9.372797500000001</v>
+      </c>
+      <c r="O83">
+        <v>-3.186751150000001</v>
+      </c>
+      <c r="P83">
+        <v>-6.18604635</v>
+      </c>
+      <c r="Q83">
+        <v>-5.83704635</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2980291666480626</v>
+      </c>
+      <c r="T83">
+        <v>3.784371894988738</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02271451609811927</v>
+      </c>
+      <c r="W83">
+        <v>0.1795273433927755</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.06680740028858601</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2037866898112801</v>
+      </c>
+      <c r="C84">
+        <v>-33.77161535409294</v>
+      </c>
+      <c r="D84">
+        <v>20.00838464590706</v>
+      </c>
+      <c r="E84">
+        <v>31.85</v>
+      </c>
+      <c r="F84">
+        <v>55.35</v>
+      </c>
+      <c r="G84">
+        <v>1.57</v>
+      </c>
+      <c r="H84">
+        <v>44</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.02</v>
+      </c>
+      <c r="K84">
+        <v>0.349</v>
+      </c>
+      <c r="L84">
+        <v>0.671</v>
+      </c>
+      <c r="M84">
+        <v>10.167795</v>
+      </c>
+      <c r="N84">
+        <v>-9.496795000000001</v>
+      </c>
+      <c r="O84">
+        <v>-3.2289103</v>
+      </c>
+      <c r="P84">
+        <v>-6.2678847</v>
+      </c>
+      <c r="Q84">
+        <v>-5.9188847</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3140696759062884</v>
+      </c>
+      <c r="T84">
+        <v>3.994614778043668</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02243750980423976</v>
+      </c>
+      <c r="W84">
+        <v>0.1795782294489612</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.06599267589482272</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2055306898112801</v>
+      </c>
+      <c r="C85">
+        <v>-34.62443984656159</v>
+      </c>
+      <c r="D85">
+        <v>19.83056015343842</v>
+      </c>
+      <c r="E85">
+        <v>32.52500000000001</v>
+      </c>
+      <c r="F85">
+        <v>56.02500000000001</v>
+      </c>
+      <c r="G85">
+        <v>1.57</v>
+      </c>
+      <c r="H85">
+        <v>44</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.02</v>
+      </c>
+      <c r="K85">
+        <v>0.349</v>
+      </c>
+      <c r="L85">
+        <v>0.671</v>
+      </c>
+      <c r="M85">
+        <v>10.2917925</v>
+      </c>
+      <c r="N85">
+        <v>-9.620792500000002</v>
+      </c>
+      <c r="O85">
+        <v>-3.271069450000001</v>
+      </c>
+      <c r="P85">
+        <v>-6.349723050000001</v>
+      </c>
+      <c r="Q85">
+        <v>-6.000723050000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.331997303900776</v>
+      </c>
+      <c r="T85">
+        <v>4.229592117928591</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02216717836081519</v>
+      </c>
+      <c r="W85">
+        <v>0.1796278893351183</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.06519758341416226</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2072746898112801</v>
+      </c>
+      <c r="C86">
+        <v>-35.47413135354444</v>
+      </c>
+      <c r="D86">
+        <v>19.65586864645556</v>
+      </c>
+      <c r="E86">
+        <v>33.2</v>
+      </c>
+      <c r="F86">
+        <v>56.7</v>
+      </c>
+      <c r="G86">
+        <v>1.57</v>
+      </c>
+      <c r="H86">
+        <v>44</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.02</v>
+      </c>
+      <c r="K86">
+        <v>0.349</v>
+      </c>
+      <c r="L86">
+        <v>0.671</v>
+      </c>
+      <c r="M86">
+        <v>10.41579</v>
+      </c>
+      <c r="N86">
+        <v>-9.74479</v>
+      </c>
+      <c r="O86">
+        <v>-3.3132286</v>
+      </c>
+      <c r="P86">
+        <v>-6.4315614</v>
+      </c>
+      <c r="Q86">
+        <v>-6.082561399999999</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3521658853945743</v>
+      </c>
+      <c r="T86">
+        <v>4.493941625299125</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02190328338032929</v>
+      </c>
+      <c r="W86">
+        <v>0.1796763668430335</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.06442142170685083</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.20901868981128</v>
+      </c>
+      <c r="C87">
+        <v>-36.32077194938356</v>
+      </c>
+      <c r="D87">
+        <v>19.48422805061644</v>
+      </c>
+      <c r="E87">
+        <v>33.875</v>
+      </c>
+      <c r="F87">
+        <v>57.375</v>
+      </c>
+      <c r="G87">
+        <v>1.57</v>
+      </c>
+      <c r="H87">
+        <v>44</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.02</v>
+      </c>
+      <c r="K87">
+        <v>0.349</v>
+      </c>
+      <c r="L87">
+        <v>0.671</v>
+      </c>
+      <c r="M87">
+        <v>10.5397875</v>
+      </c>
+      <c r="N87">
+        <v>-9.868787500000002</v>
+      </c>
+      <c r="O87">
+        <v>-3.355387750000001</v>
+      </c>
+      <c r="P87">
+        <v>-6.513399750000001</v>
+      </c>
+      <c r="Q87">
+        <v>-6.164399750000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3750236110875459</v>
+      </c>
+      <c r="T87">
+        <v>4.7935377336524</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02164559769350189</v>
+      </c>
+      <c r="W87">
+        <v>0.1797237037037037</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.06366352262794661</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.21076268981128</v>
+      </c>
+      <c r="C88">
+        <v>-37.16444086645257</v>
+      </c>
+      <c r="D88">
+        <v>19.31555913354743</v>
+      </c>
+      <c r="E88">
+        <v>34.55</v>
+      </c>
+      <c r="F88">
+        <v>58.05</v>
+      </c>
+      <c r="G88">
+        <v>1.57</v>
+      </c>
+      <c r="H88">
+        <v>44</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.02</v>
+      </c>
+      <c r="K88">
+        <v>0.349</v>
+      </c>
+      <c r="L88">
+        <v>0.671</v>
+      </c>
+      <c r="M88">
+        <v>10.663785</v>
+      </c>
+      <c r="N88">
+        <v>-9.992785</v>
+      </c>
+      <c r="O88">
+        <v>-3.3975469</v>
+      </c>
+      <c r="P88">
+        <v>-6.5952381</v>
+      </c>
+      <c r="Q88">
+        <v>-6.246238099999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4011467261652277</v>
+      </c>
+      <c r="T88">
+        <v>5.135933286056143</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02139390469706582</v>
+      </c>
+      <c r="W88">
+        <v>0.179769939707149</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.06292324910901703</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.21250668981128</v>
+      </c>
+      <c r="C89">
+        <v>-38.00521461711102</v>
+      </c>
+      <c r="D89">
+        <v>19.14978538288898</v>
+      </c>
+      <c r="E89">
+        <v>35.225</v>
+      </c>
+      <c r="F89">
+        <v>58.725</v>
+      </c>
+      <c r="G89">
+        <v>1.57</v>
+      </c>
+      <c r="H89">
+        <v>44</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.02</v>
+      </c>
+      <c r="K89">
+        <v>0.349</v>
+      </c>
+      <c r="L89">
+        <v>0.671</v>
+      </c>
+      <c r="M89">
+        <v>10.7877825</v>
+      </c>
+      <c r="N89">
+        <v>-10.1167825</v>
+      </c>
+      <c r="O89">
+        <v>-3.439706050000001</v>
+      </c>
+      <c r="P89">
+        <v>-6.67707645</v>
+      </c>
+      <c r="Q89">
+        <v>-6.32807645</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4312887820240914</v>
+      </c>
+      <c r="T89">
+        <v>5.531005077291231</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02114799774652483</v>
+      </c>
+      <c r="W89">
+        <v>0.1798151128139634</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.06219999337213178</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.21425068981128</v>
+      </c>
+      <c r="C90">
+        <v>-38.84316710943251</v>
+      </c>
+      <c r="D90">
+        <v>18.98683289056748</v>
+      </c>
+      <c r="E90">
+        <v>35.9</v>
+      </c>
+      <c r="F90">
+        <v>59.4</v>
+      </c>
+      <c r="G90">
+        <v>1.57</v>
+      </c>
+      <c r="H90">
+        <v>44</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.02</v>
+      </c>
+      <c r="K90">
+        <v>0.349</v>
+      </c>
+      <c r="L90">
+        <v>0.671</v>
+      </c>
+      <c r="M90">
+        <v>10.91178</v>
+      </c>
+      <c r="N90">
+        <v>-10.24078</v>
+      </c>
+      <c r="O90">
+        <v>-3.481865200000001</v>
+      </c>
+      <c r="P90">
+        <v>-6.7589148</v>
+      </c>
+      <c r="Q90">
+        <v>-6.4099148</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4664545138594325</v>
+      </c>
+      <c r="T90">
+        <v>5.991922167065502</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02090767959031432</v>
+      </c>
+      <c r="W90">
+        <v>0.1798592592592592</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.06149317526563025</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.21599468981128</v>
+      </c>
+      <c r="C91">
+        <v>-39.67836975707375</v>
+      </c>
+      <c r="D91">
+        <v>18.82663024292625</v>
+      </c>
+      <c r="E91">
+        <v>36.575</v>
+      </c>
+      <c r="F91">
+        <v>60.075</v>
+      </c>
+      <c r="G91">
+        <v>1.57</v>
+      </c>
+      <c r="H91">
+        <v>44</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.02</v>
+      </c>
+      <c r="K91">
+        <v>0.349</v>
+      </c>
+      <c r="L91">
+        <v>0.671</v>
+      </c>
+      <c r="M91">
+        <v>11.0357775</v>
+      </c>
+      <c r="N91">
+        <v>-10.3647775</v>
+      </c>
+      <c r="O91">
+        <v>-3.52402435</v>
+      </c>
+      <c r="P91">
+        <v>-6.84075315</v>
+      </c>
+      <c r="Q91">
+        <v>-6.49175315</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5080140151193809</v>
+      </c>
+      <c r="T91">
+        <v>6.536642364071456</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02067276184210854</v>
+      </c>
+      <c r="W91">
+        <v>0.1799024136496047</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.06080224071208384</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.21773868981128</v>
+      </c>
+      <c r="C92">
+        <v>-40.51089158362808</v>
+      </c>
+      <c r="D92">
+        <v>18.66910841637192</v>
+      </c>
+      <c r="E92">
+        <v>37.25</v>
+      </c>
+      <c r="F92">
+        <v>60.75</v>
+      </c>
+      <c r="G92">
+        <v>1.57</v>
+      </c>
+      <c r="H92">
+        <v>44</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.02</v>
+      </c>
+      <c r="K92">
+        <v>0.349</v>
+      </c>
+      <c r="L92">
+        <v>0.671</v>
+      </c>
+      <c r="M92">
+        <v>11.159775</v>
+      </c>
+      <c r="N92">
+        <v>-10.488775</v>
+      </c>
+      <c r="O92">
+        <v>-3.5661835</v>
+      </c>
+      <c r="P92">
+        <v>-6.9225915</v>
+      </c>
+      <c r="Q92">
+        <v>-6.5735915</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.557885416631319</v>
+      </c>
+      <c r="T92">
+        <v>7.190306600478602</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02044306448830734</v>
+      </c>
+      <c r="W92">
+        <v>0.1799446090534979</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.06012666025972735</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2194826898112801</v>
+      </c>
+      <c r="C93">
+        <v>-41.34079932178381</v>
+      </c>
+      <c r="D93">
+        <v>18.51420067821619</v>
+      </c>
+      <c r="E93">
+        <v>37.925</v>
+      </c>
+      <c r="F93">
+        <v>61.425</v>
+      </c>
+      <c r="G93">
+        <v>1.57</v>
+      </c>
+      <c r="H93">
+        <v>44</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.02</v>
+      </c>
+      <c r="K93">
+        <v>0.349</v>
+      </c>
+      <c r="L93">
+        <v>0.671</v>
+      </c>
+      <c r="M93">
+        <v>11.2837725</v>
+      </c>
+      <c r="N93">
+        <v>-10.6127725</v>
+      </c>
+      <c r="O93">
+        <v>-3.608342650000001</v>
+      </c>
+      <c r="P93">
+        <v>-7.004429850000001</v>
+      </c>
+      <c r="Q93">
+        <v>-6.655429850000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6188393518125768</v>
+      </c>
+      <c r="T93">
+        <v>7.989229556087337</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02021841542799627</v>
+      </c>
+      <c r="W93">
+        <v>0.1799858770858771</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.05946592772940074</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2212266898112801</v>
+      </c>
+      <c r="C94">
+        <v>-42.16815750758647</v>
+      </c>
+      <c r="D94">
+        <v>18.36184249241353</v>
+      </c>
+      <c r="E94">
+        <v>38.6</v>
+      </c>
+      <c r="F94">
+        <v>62.1</v>
+      </c>
+      <c r="G94">
+        <v>1.57</v>
+      </c>
+      <c r="H94">
+        <v>44</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.02</v>
+      </c>
+      <c r="K94">
+        <v>0.349</v>
+      </c>
+      <c r="L94">
+        <v>0.671</v>
+      </c>
+      <c r="M94">
+        <v>11.40777</v>
+      </c>
+      <c r="N94">
+        <v>-10.73677</v>
+      </c>
+      <c r="O94">
+        <v>-3.650501800000001</v>
+      </c>
+      <c r="P94">
+        <v>-7.086268200000001</v>
+      </c>
+      <c r="Q94">
+        <v>-6.737268200000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6950317707891491</v>
+      </c>
+      <c r="T94">
+        <v>8.987883250598257</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01999865004290935</v>
+      </c>
+      <c r="W94">
+        <v>0.1800262479871176</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.05881955894973334</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.22297068981128</v>
+      </c>
+      <c r="C95">
+        <v>-42.9930285700848</v>
+      </c>
+      <c r="D95">
+        <v>18.2119714299152</v>
+      </c>
+      <c r="E95">
+        <v>39.27500000000001</v>
+      </c>
+      <c r="F95">
+        <v>62.77500000000001</v>
+      </c>
+      <c r="G95">
+        <v>1.57</v>
+      </c>
+      <c r="H95">
+        <v>44</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.02</v>
+      </c>
+      <c r="K95">
+        <v>0.349</v>
+      </c>
+      <c r="L95">
+        <v>0.671</v>
+      </c>
+      <c r="M95">
+        <v>11.5317675</v>
+      </c>
+      <c r="N95">
+        <v>-10.8607675</v>
+      </c>
+      <c r="O95">
+        <v>-3.692660950000001</v>
+      </c>
+      <c r="P95">
+        <v>-7.168106550000001</v>
+      </c>
+      <c r="Q95">
+        <v>-6.819106550000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7929934523304562</v>
+      </c>
+      <c r="T95">
+        <v>10.27186657211229</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.01978361079513613</v>
+      </c>
+      <c r="W95">
+        <v>0.1800657506969335</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.05818709057392979</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2247146898112801</v>
+      </c>
+      <c r="C96">
+        <v>-43.81547291662217</v>
+      </c>
+      <c r="D96">
+        <v>18.06452708337784</v>
+      </c>
+      <c r="E96">
+        <v>39.95</v>
+      </c>
+      <c r="F96">
+        <v>63.45</v>
+      </c>
+      <c r="G96">
+        <v>1.57</v>
+      </c>
+      <c r="H96">
+        <v>44</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.02</v>
+      </c>
+      <c r="K96">
+        <v>0.349</v>
+      </c>
+      <c r="L96">
+        <v>0.671</v>
+      </c>
+      <c r="M96">
+        <v>11.655765</v>
+      </c>
+      <c r="N96">
+        <v>-10.984765</v>
+      </c>
+      <c r="O96">
+        <v>-3.734820100000001</v>
+      </c>
+      <c r="P96">
+        <v>-7.249944900000001</v>
+      </c>
+      <c r="Q96">
+        <v>-6.900944900000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9236090277188658</v>
+      </c>
+      <c r="T96">
+        <v>11.98384433413101</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01957314685050703</v>
+      </c>
+      <c r="W96">
+        <v>0.1801044129235619</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.05756807897207938</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2264586898112801</v>
+      </c>
+      <c r="C97">
+        <v>-44.63554901401799</v>
+      </c>
+      <c r="D97">
+        <v>17.91945098598201</v>
+      </c>
+      <c r="E97">
+        <v>40.625</v>
+      </c>
+      <c r="F97">
+        <v>64.125</v>
+      </c>
+      <c r="G97">
+        <v>1.57</v>
+      </c>
+      <c r="H97">
+        <v>44</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.02</v>
+      </c>
+      <c r="K97">
+        <v>0.349</v>
+      </c>
+      <c r="L97">
+        <v>0.671</v>
+      </c>
+      <c r="M97">
+        <v>11.7797625</v>
+      </c>
+      <c r="N97">
+        <v>-11.1087625</v>
+      </c>
+      <c r="O97">
+        <v>-3.776979250000001</v>
+      </c>
+      <c r="P97">
+        <v>-7.331783250000001</v>
+      </c>
+      <c r="Q97">
+        <v>-6.982783250000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.10647083326264</v>
+      </c>
+      <c r="T97">
+        <v>14.38061320095722</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01936711372576485</v>
+      </c>
+      <c r="W97">
+        <v>0.180142261208577</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.05696209919342599</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2282026898112801</v>
+      </c>
+      <c r="C98">
+        <v>-45.45331346586869</v>
+      </c>
+      <c r="D98">
+        <v>17.7766865341313</v>
+      </c>
+      <c r="E98">
+        <v>41.3</v>
+      </c>
+      <c r="F98">
+        <v>64.8</v>
+      </c>
+      <c r="G98">
+        <v>1.57</v>
+      </c>
+      <c r="H98">
+        <v>44</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.02</v>
+      </c>
+      <c r="K98">
+        <v>0.349</v>
+      </c>
+      <c r="L98">
+        <v>0.671</v>
+      </c>
+      <c r="M98">
+        <v>11.90376</v>
+      </c>
+      <c r="N98">
+        <v>-11.23276</v>
+      </c>
+      <c r="O98">
+        <v>-3.8191384</v>
+      </c>
+      <c r="P98">
+        <v>-7.413621600000001</v>
+      </c>
+      <c r="Q98">
+        <v>-7.064621600000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.380763541578296</v>
+      </c>
+      <c r="T98">
+        <v>17.97576650119649</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01916537295778813</v>
+      </c>
+      <c r="W98">
+        <v>0.1801793209876543</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.05636874399349445</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.22994668981128</v>
+      </c>
+      <c r="C99">
+        <v>-46.2688210861826</v>
+      </c>
+      <c r="D99">
+        <v>17.63617891381739</v>
+      </c>
+      <c r="E99">
+        <v>41.97499999999999</v>
+      </c>
+      <c r="F99">
+        <v>65.47499999999999</v>
+      </c>
+      <c r="G99">
+        <v>1.57</v>
+      </c>
+      <c r="H99">
+        <v>44</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.02</v>
+      </c>
+      <c r="K99">
+        <v>0.349</v>
+      </c>
+      <c r="L99">
+        <v>0.671</v>
+      </c>
+      <c r="M99">
+        <v>12.0277575</v>
+      </c>
+      <c r="N99">
+        <v>-11.3567575</v>
+      </c>
+      <c r="O99">
+        <v>-3.861297550000001</v>
+      </c>
+      <c r="P99">
+        <v>-7.49545995</v>
+      </c>
+      <c r="Q99">
+        <v>-7.14645995</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.837918055437729</v>
+      </c>
+      <c r="T99">
+        <v>23.96768866826199</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01896779179327485</v>
+      </c>
+      <c r="W99">
+        <v>0.1802156166475754</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.05578762292139661</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.23169068981128</v>
+      </c>
+      <c r="C100">
+        <v>-47.08212496955021</v>
+      </c>
+      <c r="D100">
+        <v>17.4978750304498</v>
+      </c>
+      <c r="E100">
+        <v>42.65000000000001</v>
+      </c>
+      <c r="F100">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="G100">
+        <v>1.57</v>
+      </c>
+      <c r="H100">
+        <v>44</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.02</v>
+      </c>
+      <c r="K100">
+        <v>0.349</v>
+      </c>
+      <c r="L100">
+        <v>0.671</v>
+      </c>
+      <c r="M100">
+        <v>12.151755</v>
+      </c>
+      <c r="N100">
+        <v>-11.480755</v>
+      </c>
+      <c r="O100">
+        <v>-3.903456700000001</v>
+      </c>
+      <c r="P100">
+        <v>-7.577298300000001</v>
+      </c>
+      <c r="Q100">
+        <v>-7.228298300000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.752227083156592</v>
+      </c>
+      <c r="T100">
+        <v>35.95153300239297</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0187742428974251</v>
+      </c>
+      <c r="W100">
+        <v>0.180251171579743</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.05521836146301495</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.23343468981128</v>
+      </c>
+      <c r="C101">
+        <v>-47.89327655803835</v>
+      </c>
+      <c r="D101">
+        <v>17.36172344196165</v>
+      </c>
+      <c r="E101">
+        <v>43.325</v>
+      </c>
+      <c r="F101">
+        <v>66.825</v>
+      </c>
+      <c r="G101">
+        <v>1.57</v>
+      </c>
+      <c r="H101">
+        <v>44</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.02</v>
+      </c>
+      <c r="K101">
+        <v>0.349</v>
+      </c>
+      <c r="L101">
+        <v>0.671</v>
+      </c>
+      <c r="M101">
+        <v>12.2757525</v>
+      </c>
+      <c r="N101">
+        <v>-11.6047525</v>
+      </c>
+      <c r="O101">
+        <v>-3.945615850000001</v>
+      </c>
+      <c r="P101">
+        <v>-7.659136650000001</v>
+      </c>
+      <c r="Q101">
+        <v>-7.31013665</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.495154166313184</v>
+      </c>
+      <c r="T101">
+        <v>71.90306600478594</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.0185846040802794</v>
+      </c>
+      <c r="W101">
+        <v>0.1802860082304527</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.05466060023611585</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
